--- a/data/CS5/Market Data/CS5_market_data_2050.xlsx
+++ b/data/CS5/Market Data/CS5_market_data_2050.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\shared-resources-planning-v3\data\CS5\Market Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C5770D4-154B-43C1-90AB-EAAC2E321BFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12591271-580B-4EBA-B067-A388465BDAF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="45" windowWidth="29040" windowHeight="17640" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Scenarios" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,6 @@
   </sheets>
   <externalReferences>
     <externalReference r:id="rId10"/>
-    <externalReference r:id="rId11"/>
   </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
@@ -165,6 +164,223 @@
           <cell r="B2">
             <v>35.04</v>
           </cell>
+          <cell r="C2">
+            <v>34.020000000000003</v>
+          </cell>
+          <cell r="D2">
+            <v>30</v>
+          </cell>
+          <cell r="E2">
+            <v>30.03</v>
+          </cell>
+          <cell r="F2">
+            <v>33.590000000000003</v>
+          </cell>
+          <cell r="G2">
+            <v>33.35</v>
+          </cell>
+          <cell r="H2">
+            <v>34.01</v>
+          </cell>
+          <cell r="I2">
+            <v>35.33</v>
+          </cell>
+          <cell r="J2">
+            <v>36.94</v>
+          </cell>
+          <cell r="K2">
+            <v>38.74</v>
+          </cell>
+          <cell r="L2">
+            <v>36.6</v>
+          </cell>
+          <cell r="M2">
+            <v>34.19</v>
+          </cell>
+          <cell r="N2">
+            <v>34</v>
+          </cell>
+          <cell r="O2">
+            <v>34</v>
+          </cell>
+          <cell r="P2">
+            <v>30</v>
+          </cell>
+          <cell r="Q2">
+            <v>28.8</v>
+          </cell>
+          <cell r="R2">
+            <v>29.9</v>
+          </cell>
+          <cell r="S2">
+            <v>38.25</v>
+          </cell>
+          <cell r="T2">
+            <v>39.950000000000003</v>
+          </cell>
+          <cell r="U2">
+            <v>41.45</v>
+          </cell>
+          <cell r="V2">
+            <v>44.83</v>
+          </cell>
+          <cell r="W2">
+            <v>44.82</v>
+          </cell>
+          <cell r="X2">
+            <v>40.9</v>
+          </cell>
+          <cell r="Y2">
+            <v>39.75</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="B3">
+            <v>30.25</v>
+          </cell>
+          <cell r="C3">
+            <v>26.85</v>
+          </cell>
+          <cell r="D3">
+            <v>22.25</v>
+          </cell>
+          <cell r="E3">
+            <v>18.09</v>
+          </cell>
+          <cell r="F3">
+            <v>10</v>
+          </cell>
+          <cell r="G3">
+            <v>8</v>
+          </cell>
+          <cell r="H3">
+            <v>8.41</v>
+          </cell>
+          <cell r="I3">
+            <v>8.41</v>
+          </cell>
+          <cell r="J3">
+            <v>10.8</v>
+          </cell>
+          <cell r="K3">
+            <v>16.989999999999998</v>
+          </cell>
+          <cell r="L3">
+            <v>19.54</v>
+          </cell>
+          <cell r="M3">
+            <v>17.920000000000002</v>
+          </cell>
+          <cell r="N3">
+            <v>22.75</v>
+          </cell>
+          <cell r="O3">
+            <v>20</v>
+          </cell>
+          <cell r="P3">
+            <v>21.57</v>
+          </cell>
+          <cell r="Q3">
+            <v>19.399999999999999</v>
+          </cell>
+          <cell r="R3">
+            <v>23.8</v>
+          </cell>
+          <cell r="S3">
+            <v>29.3</v>
+          </cell>
+          <cell r="T3">
+            <v>35.270000000000003</v>
+          </cell>
+          <cell r="U3">
+            <v>41</v>
+          </cell>
+          <cell r="V3">
+            <v>43.02</v>
+          </cell>
+          <cell r="W3">
+            <v>43</v>
+          </cell>
+          <cell r="X3">
+            <v>41.37</v>
+          </cell>
+          <cell r="Y3">
+            <v>41.35</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="B4">
+            <v>46.6</v>
+          </cell>
+          <cell r="C4">
+            <v>43.04</v>
+          </cell>
+          <cell r="D4">
+            <v>42.07</v>
+          </cell>
+          <cell r="E4">
+            <v>38.82</v>
+          </cell>
+          <cell r="F4">
+            <v>39.090000000000003</v>
+          </cell>
+          <cell r="G4">
+            <v>43.21</v>
+          </cell>
+          <cell r="H4">
+            <v>54.39</v>
+          </cell>
+          <cell r="I4">
+            <v>57.01</v>
+          </cell>
+          <cell r="J4">
+            <v>60.02</v>
+          </cell>
+          <cell r="K4">
+            <v>58.87</v>
+          </cell>
+          <cell r="L4">
+            <v>58.2</v>
+          </cell>
+          <cell r="M4">
+            <v>58.66</v>
+          </cell>
+          <cell r="N4">
+            <v>56.01</v>
+          </cell>
+          <cell r="O4">
+            <v>55.06</v>
+          </cell>
+          <cell r="P4">
+            <v>55.09</v>
+          </cell>
+          <cell r="Q4">
+            <v>55.62</v>
+          </cell>
+          <cell r="R4">
+            <v>56.26</v>
+          </cell>
+          <cell r="S4">
+            <v>56.75</v>
+          </cell>
+          <cell r="T4">
+            <v>59.51</v>
+          </cell>
+          <cell r="U4">
+            <v>59.57</v>
+          </cell>
+          <cell r="V4">
+            <v>56.75</v>
+          </cell>
+          <cell r="W4">
+            <v>52.25</v>
+          </cell>
+          <cell r="X4">
+            <v>47.01</v>
+          </cell>
+          <cell r="Y4">
+            <v>43.67</v>
+          </cell>
         </row>
       </sheetData>
       <sheetData sheetId="2">
@@ -172,6 +388,223 @@
           <cell r="B2">
             <v>2.68</v>
           </cell>
+          <cell r="C2">
+            <v>3.23</v>
+          </cell>
+          <cell r="D2">
+            <v>7.6</v>
+          </cell>
+          <cell r="E2">
+            <v>4.3600000000000003</v>
+          </cell>
+          <cell r="F2">
+            <v>4.41</v>
+          </cell>
+          <cell r="G2">
+            <v>5.98</v>
+          </cell>
+          <cell r="H2">
+            <v>5.19</v>
+          </cell>
+          <cell r="I2">
+            <v>6.08</v>
+          </cell>
+          <cell r="J2">
+            <v>4.68</v>
+          </cell>
+          <cell r="K2">
+            <v>4.45</v>
+          </cell>
+          <cell r="L2">
+            <v>6.58</v>
+          </cell>
+          <cell r="M2">
+            <v>9.39</v>
+          </cell>
+          <cell r="N2">
+            <v>9.75</v>
+          </cell>
+          <cell r="O2">
+            <v>10.65</v>
+          </cell>
+          <cell r="P2">
+            <v>11.37</v>
+          </cell>
+          <cell r="Q2">
+            <v>11.01</v>
+          </cell>
+          <cell r="R2">
+            <v>4.37</v>
+          </cell>
+          <cell r="S2">
+            <v>5.17</v>
+          </cell>
+          <cell r="T2">
+            <v>6.09</v>
+          </cell>
+          <cell r="U2">
+            <v>4.7699999999999996</v>
+          </cell>
+          <cell r="V2">
+            <v>4.6399999999999997</v>
+          </cell>
+          <cell r="W2">
+            <v>3.6</v>
+          </cell>
+          <cell r="X2">
+            <v>4.26</v>
+          </cell>
+          <cell r="Y2">
+            <v>20.81</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="B3">
+            <v>27.12</v>
+          </cell>
+          <cell r="C3">
+            <v>28.52</v>
+          </cell>
+          <cell r="D3">
+            <v>39.049999999999997</v>
+          </cell>
+          <cell r="E3">
+            <v>44.27</v>
+          </cell>
+          <cell r="F3">
+            <v>48.18</v>
+          </cell>
+          <cell r="G3">
+            <v>47.89</v>
+          </cell>
+          <cell r="H3">
+            <v>47.56</v>
+          </cell>
+          <cell r="I3">
+            <v>49.85</v>
+          </cell>
+          <cell r="J3">
+            <v>46.4</v>
+          </cell>
+          <cell r="K3">
+            <v>40.1</v>
+          </cell>
+          <cell r="L3">
+            <v>41.24</v>
+          </cell>
+          <cell r="M3">
+            <v>33.729999999999997</v>
+          </cell>
+          <cell r="N3">
+            <v>38.44</v>
+          </cell>
+          <cell r="O3">
+            <v>28.68</v>
+          </cell>
+          <cell r="P3">
+            <v>30.2</v>
+          </cell>
+          <cell r="Q3">
+            <v>27.12</v>
+          </cell>
+          <cell r="R3">
+            <v>18.190000000000001</v>
+          </cell>
+          <cell r="S3">
+            <v>22.68</v>
+          </cell>
+          <cell r="T3">
+            <v>14.82</v>
+          </cell>
+          <cell r="U3">
+            <v>13</v>
+          </cell>
+          <cell r="V3">
+            <v>14.51</v>
+          </cell>
+          <cell r="W3">
+            <v>17.04</v>
+          </cell>
+          <cell r="X3">
+            <v>18.21</v>
+          </cell>
+          <cell r="Y3">
+            <v>14</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="B4">
+            <v>16.43</v>
+          </cell>
+          <cell r="C4">
+            <v>15.51</v>
+          </cell>
+          <cell r="D4">
+            <v>16.440000000000001</v>
+          </cell>
+          <cell r="E4">
+            <v>16.41</v>
+          </cell>
+          <cell r="F4">
+            <v>16.920000000000002</v>
+          </cell>
+          <cell r="G4">
+            <v>14.12</v>
+          </cell>
+          <cell r="H4">
+            <v>12.35</v>
+          </cell>
+          <cell r="I4">
+            <v>11.65</v>
+          </cell>
+          <cell r="J4">
+            <v>10.45</v>
+          </cell>
+          <cell r="K4">
+            <v>9.51</v>
+          </cell>
+          <cell r="L4">
+            <v>7.8</v>
+          </cell>
+          <cell r="M4">
+            <v>7.83</v>
+          </cell>
+          <cell r="N4">
+            <v>8.5500000000000007</v>
+          </cell>
+          <cell r="O4">
+            <v>8.5500000000000007</v>
+          </cell>
+          <cell r="P4">
+            <v>9.5</v>
+          </cell>
+          <cell r="Q4">
+            <v>7.45</v>
+          </cell>
+          <cell r="R4">
+            <v>6.27</v>
+          </cell>
+          <cell r="S4">
+            <v>6.98</v>
+          </cell>
+          <cell r="T4">
+            <v>5.21</v>
+          </cell>
+          <cell r="U4">
+            <v>5.13</v>
+          </cell>
+          <cell r="V4">
+            <v>5.41</v>
+          </cell>
+          <cell r="W4">
+            <v>9.5</v>
+          </cell>
+          <cell r="X4">
+            <v>10.74</v>
+          </cell>
+          <cell r="Y4">
+            <v>10.74</v>
+          </cell>
         </row>
       </sheetData>
       <sheetData sheetId="3">
@@ -179,6 +612,223 @@
           <cell r="B2">
             <v>50.01</v>
           </cell>
+          <cell r="C2">
+            <v>45</v>
+          </cell>
+          <cell r="D2">
+            <v>49</v>
+          </cell>
+          <cell r="E2">
+            <v>37.31</v>
+          </cell>
+          <cell r="F2">
+            <v>37.31</v>
+          </cell>
+          <cell r="G2">
+            <v>48</v>
+          </cell>
+          <cell r="H2">
+            <v>50.01</v>
+          </cell>
+          <cell r="I2">
+            <v>50.01</v>
+          </cell>
+          <cell r="J2">
+            <v>48</v>
+          </cell>
+          <cell r="K2">
+            <v>46.88</v>
+          </cell>
+          <cell r="L2">
+            <v>47.88</v>
+          </cell>
+          <cell r="M2">
+            <v>47.88</v>
+          </cell>
+          <cell r="N2">
+            <v>47.88</v>
+          </cell>
+          <cell r="O2">
+            <v>47.88</v>
+          </cell>
+          <cell r="P2">
+            <v>47.88</v>
+          </cell>
+          <cell r="Q2">
+            <v>47.88</v>
+          </cell>
+          <cell r="R2">
+            <v>47.88</v>
+          </cell>
+          <cell r="S2">
+            <v>47.88</v>
+          </cell>
+          <cell r="T2">
+            <v>47.88</v>
+          </cell>
+          <cell r="U2">
+            <v>47.88</v>
+          </cell>
+          <cell r="V2">
+            <v>47.88</v>
+          </cell>
+          <cell r="W2">
+            <v>47.88</v>
+          </cell>
+          <cell r="X2">
+            <v>47.88</v>
+          </cell>
+          <cell r="Y2">
+            <v>47.88</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="B3">
+            <v>47.67</v>
+          </cell>
+          <cell r="C3">
+            <v>32.44</v>
+          </cell>
+          <cell r="D3">
+            <v>32.44</v>
+          </cell>
+          <cell r="E3">
+            <v>32.44</v>
+          </cell>
+          <cell r="F3">
+            <v>32.44</v>
+          </cell>
+          <cell r="G3">
+            <v>32.44</v>
+          </cell>
+          <cell r="H3">
+            <v>32.44</v>
+          </cell>
+          <cell r="I3">
+            <v>32.44</v>
+          </cell>
+          <cell r="J3">
+            <v>47.67</v>
+          </cell>
+          <cell r="K3">
+            <v>36.44</v>
+          </cell>
+          <cell r="L3">
+            <v>37.44</v>
+          </cell>
+          <cell r="M3">
+            <v>37.44</v>
+          </cell>
+          <cell r="N3">
+            <v>37.44</v>
+          </cell>
+          <cell r="O3">
+            <v>37.44</v>
+          </cell>
+          <cell r="P3">
+            <v>37.44</v>
+          </cell>
+          <cell r="Q3">
+            <v>40.69</v>
+          </cell>
+          <cell r="R3">
+            <v>47.67</v>
+          </cell>
+          <cell r="S3">
+            <v>44.4</v>
+          </cell>
+          <cell r="T3">
+            <v>44.4</v>
+          </cell>
+          <cell r="U3">
+            <v>44.4</v>
+          </cell>
+          <cell r="V3">
+            <v>44.4</v>
+          </cell>
+          <cell r="W3">
+            <v>47.67</v>
+          </cell>
+          <cell r="X3">
+            <v>47.67</v>
+          </cell>
+          <cell r="Y3">
+            <v>45</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="B4">
+            <v>55</v>
+          </cell>
+          <cell r="C4">
+            <v>56.99</v>
+          </cell>
+          <cell r="D4">
+            <v>56.99</v>
+          </cell>
+          <cell r="E4">
+            <v>55</v>
+          </cell>
+          <cell r="F4">
+            <v>55</v>
+          </cell>
+          <cell r="G4">
+            <v>55</v>
+          </cell>
+          <cell r="H4">
+            <v>56.99</v>
+          </cell>
+          <cell r="I4">
+            <v>56.99</v>
+          </cell>
+          <cell r="J4">
+            <v>55</v>
+          </cell>
+          <cell r="K4">
+            <v>55</v>
+          </cell>
+          <cell r="L4">
+            <v>55</v>
+          </cell>
+          <cell r="M4">
+            <v>55</v>
+          </cell>
+          <cell r="N4">
+            <v>59.95</v>
+          </cell>
+          <cell r="O4">
+            <v>59.95</v>
+          </cell>
+          <cell r="P4">
+            <v>59.95</v>
+          </cell>
+          <cell r="Q4">
+            <v>59.95</v>
+          </cell>
+          <cell r="R4">
+            <v>59.95</v>
+          </cell>
+          <cell r="S4">
+            <v>55</v>
+          </cell>
+          <cell r="T4">
+            <v>55</v>
+          </cell>
+          <cell r="U4">
+            <v>55</v>
+          </cell>
+          <cell r="V4">
+            <v>55</v>
+          </cell>
+          <cell r="W4">
+            <v>55</v>
+          </cell>
+          <cell r="X4">
+            <v>55</v>
+          </cell>
+          <cell r="Y4">
+            <v>55</v>
+          </cell>
         </row>
       </sheetData>
       <sheetData sheetId="4">
@@ -186,6 +836,223 @@
           <cell r="B2">
             <v>24.97</v>
           </cell>
+          <cell r="C2">
+            <v>24.97</v>
+          </cell>
+          <cell r="D2">
+            <v>0</v>
+          </cell>
+          <cell r="E2">
+            <v>25.97</v>
+          </cell>
+          <cell r="F2">
+            <v>0</v>
+          </cell>
+          <cell r="G2">
+            <v>24.97</v>
+          </cell>
+          <cell r="H2">
+            <v>29.75</v>
+          </cell>
+          <cell r="I2">
+            <v>29.75</v>
+          </cell>
+          <cell r="J2">
+            <v>24.97</v>
+          </cell>
+          <cell r="K2">
+            <v>29.75</v>
+          </cell>
+          <cell r="L2">
+            <v>24.97</v>
+          </cell>
+          <cell r="M2">
+            <v>24.97</v>
+          </cell>
+          <cell r="N2">
+            <v>24.97</v>
+          </cell>
+          <cell r="O2">
+            <v>25.01</v>
+          </cell>
+          <cell r="P2">
+            <v>24.97</v>
+          </cell>
+          <cell r="Q2">
+            <v>24.97</v>
+          </cell>
+          <cell r="R2">
+            <v>29.75</v>
+          </cell>
+          <cell r="S2">
+            <v>29.75</v>
+          </cell>
+          <cell r="T2">
+            <v>29.75</v>
+          </cell>
+          <cell r="U2">
+            <v>29.75</v>
+          </cell>
+          <cell r="V2">
+            <v>29.75</v>
+          </cell>
+          <cell r="W2">
+            <v>29.75</v>
+          </cell>
+          <cell r="X2">
+            <v>29.75</v>
+          </cell>
+          <cell r="Y2">
+            <v>29.75</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="B3">
+            <v>4.22</v>
+          </cell>
+          <cell r="C3">
+            <v>0</v>
+          </cell>
+          <cell r="D3">
+            <v>4.22</v>
+          </cell>
+          <cell r="E3">
+            <v>4.22</v>
+          </cell>
+          <cell r="F3">
+            <v>4.22</v>
+          </cell>
+          <cell r="G3">
+            <v>4.22</v>
+          </cell>
+          <cell r="H3">
+            <v>4.22</v>
+          </cell>
+          <cell r="I3">
+            <v>4.22</v>
+          </cell>
+          <cell r="J3">
+            <v>4.22</v>
+          </cell>
+          <cell r="K3">
+            <v>0</v>
+          </cell>
+          <cell r="L3">
+            <v>0</v>
+          </cell>
+          <cell r="M3">
+            <v>0</v>
+          </cell>
+          <cell r="N3">
+            <v>0</v>
+          </cell>
+          <cell r="O3">
+            <v>0</v>
+          </cell>
+          <cell r="P3">
+            <v>0</v>
+          </cell>
+          <cell r="Q3">
+            <v>0</v>
+          </cell>
+          <cell r="R3">
+            <v>0</v>
+          </cell>
+          <cell r="S3">
+            <v>5.8</v>
+          </cell>
+          <cell r="T3">
+            <v>5.9</v>
+          </cell>
+          <cell r="U3">
+            <v>5.9</v>
+          </cell>
+          <cell r="V3">
+            <v>6.1</v>
+          </cell>
+          <cell r="W3">
+            <v>5.9</v>
+          </cell>
+          <cell r="X3">
+            <v>5.6</v>
+          </cell>
+          <cell r="Y3">
+            <v>36.6</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="B4">
+            <v>0</v>
+          </cell>
+          <cell r="C4">
+            <v>31.75</v>
+          </cell>
+          <cell r="D4">
+            <v>29.5</v>
+          </cell>
+          <cell r="E4">
+            <v>31.75</v>
+          </cell>
+          <cell r="F4">
+            <v>31.75</v>
+          </cell>
+          <cell r="G4">
+            <v>31.75</v>
+          </cell>
+          <cell r="H4">
+            <v>44.9</v>
+          </cell>
+          <cell r="I4">
+            <v>31.75</v>
+          </cell>
+          <cell r="J4">
+            <v>39.99</v>
+          </cell>
+          <cell r="K4">
+            <v>40.01</v>
+          </cell>
+          <cell r="L4">
+            <v>40.01</v>
+          </cell>
+          <cell r="M4">
+            <v>40.01</v>
+          </cell>
+          <cell r="N4">
+            <v>39.99</v>
+          </cell>
+          <cell r="O4">
+            <v>39.99</v>
+          </cell>
+          <cell r="P4">
+            <v>39.99</v>
+          </cell>
+          <cell r="Q4">
+            <v>39.99</v>
+          </cell>
+          <cell r="R4">
+            <v>40.020000000000003</v>
+          </cell>
+          <cell r="S4">
+            <v>44</v>
+          </cell>
+          <cell r="T4">
+            <v>44</v>
+          </cell>
+          <cell r="U4">
+            <v>44</v>
+          </cell>
+          <cell r="V4">
+            <v>44</v>
+          </cell>
+          <cell r="W4">
+            <v>40.99</v>
+          </cell>
+          <cell r="X4">
+            <v>31.75</v>
+          </cell>
+          <cell r="Y4">
+            <v>31.75</v>
+          </cell>
         </row>
       </sheetData>
       <sheetData sheetId="5">
@@ -1084,951 +1951,6 @@
           </cell>
         </row>
       </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="Main"/>
-      <sheetName val="Energy, Winter"/>
-      <sheetName val="Secondary Reserve, Winter"/>
-      <sheetName val="Tertiary Reserve Up, Winter"/>
-      <sheetName val="Tertiary Reserve Down, Winter"/>
-      <sheetName val="Energy, Summer"/>
-      <sheetName val="Secondary Reserve, Summer"/>
-      <sheetName val="Tertiary Reserve Up, Summer"/>
-      <sheetName val="Tertiary Reserve Down, Summer"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="2">
-          <cell r="B2">
-            <v>0.01</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="B3">
-            <v>2.5000000000000001E-2</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="B4">
-            <v>2.5000000000000001E-2</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="B5">
-            <v>2.5000000000000001E-2</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1">
-        <row r="2">
-          <cell r="B2">
-            <v>35.04</v>
-          </cell>
-          <cell r="C2">
-            <v>34.020000000000003</v>
-          </cell>
-          <cell r="D2">
-            <v>30</v>
-          </cell>
-          <cell r="E2">
-            <v>30.03</v>
-          </cell>
-          <cell r="F2">
-            <v>33.590000000000003</v>
-          </cell>
-          <cell r="G2">
-            <v>33.35</v>
-          </cell>
-          <cell r="H2">
-            <v>34.01</v>
-          </cell>
-          <cell r="I2">
-            <v>35.33</v>
-          </cell>
-          <cell r="J2">
-            <v>36.94</v>
-          </cell>
-          <cell r="K2">
-            <v>38.74</v>
-          </cell>
-          <cell r="L2">
-            <v>36.6</v>
-          </cell>
-          <cell r="M2">
-            <v>34.19</v>
-          </cell>
-          <cell r="N2">
-            <v>34</v>
-          </cell>
-          <cell r="O2">
-            <v>34</v>
-          </cell>
-          <cell r="P2">
-            <v>30</v>
-          </cell>
-          <cell r="Q2">
-            <v>28.8</v>
-          </cell>
-          <cell r="R2">
-            <v>29.9</v>
-          </cell>
-          <cell r="S2">
-            <v>38.25</v>
-          </cell>
-          <cell r="T2">
-            <v>39.950000000000003</v>
-          </cell>
-          <cell r="U2">
-            <v>41.45</v>
-          </cell>
-          <cell r="V2">
-            <v>44.83</v>
-          </cell>
-          <cell r="W2">
-            <v>44.82</v>
-          </cell>
-          <cell r="X2">
-            <v>40.9</v>
-          </cell>
-          <cell r="Y2">
-            <v>39.75</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="B3">
-            <v>30.25</v>
-          </cell>
-          <cell r="C3">
-            <v>26.85</v>
-          </cell>
-          <cell r="D3">
-            <v>22.25</v>
-          </cell>
-          <cell r="E3">
-            <v>18.09</v>
-          </cell>
-          <cell r="F3">
-            <v>10</v>
-          </cell>
-          <cell r="G3">
-            <v>8</v>
-          </cell>
-          <cell r="H3">
-            <v>8.41</v>
-          </cell>
-          <cell r="I3">
-            <v>8.41</v>
-          </cell>
-          <cell r="J3">
-            <v>10.8</v>
-          </cell>
-          <cell r="K3">
-            <v>16.989999999999998</v>
-          </cell>
-          <cell r="L3">
-            <v>19.54</v>
-          </cell>
-          <cell r="M3">
-            <v>17.920000000000002</v>
-          </cell>
-          <cell r="N3">
-            <v>22.75</v>
-          </cell>
-          <cell r="O3">
-            <v>20</v>
-          </cell>
-          <cell r="P3">
-            <v>21.57</v>
-          </cell>
-          <cell r="Q3">
-            <v>19.399999999999999</v>
-          </cell>
-          <cell r="R3">
-            <v>23.8</v>
-          </cell>
-          <cell r="S3">
-            <v>29.3</v>
-          </cell>
-          <cell r="T3">
-            <v>35.270000000000003</v>
-          </cell>
-          <cell r="U3">
-            <v>41</v>
-          </cell>
-          <cell r="V3">
-            <v>43.02</v>
-          </cell>
-          <cell r="W3">
-            <v>43</v>
-          </cell>
-          <cell r="X3">
-            <v>41.37</v>
-          </cell>
-          <cell r="Y3">
-            <v>41.35</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="B4">
-            <v>46.6</v>
-          </cell>
-          <cell r="C4">
-            <v>43.04</v>
-          </cell>
-          <cell r="D4">
-            <v>42.07</v>
-          </cell>
-          <cell r="E4">
-            <v>38.82</v>
-          </cell>
-          <cell r="F4">
-            <v>39.090000000000003</v>
-          </cell>
-          <cell r="G4">
-            <v>43.21</v>
-          </cell>
-          <cell r="H4">
-            <v>54.39</v>
-          </cell>
-          <cell r="I4">
-            <v>57.01</v>
-          </cell>
-          <cell r="J4">
-            <v>60.02</v>
-          </cell>
-          <cell r="K4">
-            <v>58.87</v>
-          </cell>
-          <cell r="L4">
-            <v>58.2</v>
-          </cell>
-          <cell r="M4">
-            <v>58.66</v>
-          </cell>
-          <cell r="N4">
-            <v>56.01</v>
-          </cell>
-          <cell r="O4">
-            <v>55.06</v>
-          </cell>
-          <cell r="P4">
-            <v>55.09</v>
-          </cell>
-          <cell r="Q4">
-            <v>55.62</v>
-          </cell>
-          <cell r="R4">
-            <v>56.26</v>
-          </cell>
-          <cell r="S4">
-            <v>56.75</v>
-          </cell>
-          <cell r="T4">
-            <v>59.51</v>
-          </cell>
-          <cell r="U4">
-            <v>59.57</v>
-          </cell>
-          <cell r="V4">
-            <v>56.75</v>
-          </cell>
-          <cell r="W4">
-            <v>52.25</v>
-          </cell>
-          <cell r="X4">
-            <v>47.01</v>
-          </cell>
-          <cell r="Y4">
-            <v>43.67</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="2">
-        <row r="2">
-          <cell r="B2">
-            <v>2.68</v>
-          </cell>
-          <cell r="C2">
-            <v>3.23</v>
-          </cell>
-          <cell r="D2">
-            <v>7.6</v>
-          </cell>
-          <cell r="E2">
-            <v>4.3600000000000003</v>
-          </cell>
-          <cell r="F2">
-            <v>4.41</v>
-          </cell>
-          <cell r="G2">
-            <v>5.98</v>
-          </cell>
-          <cell r="H2">
-            <v>5.19</v>
-          </cell>
-          <cell r="I2">
-            <v>6.08</v>
-          </cell>
-          <cell r="J2">
-            <v>4.68</v>
-          </cell>
-          <cell r="K2">
-            <v>4.45</v>
-          </cell>
-          <cell r="L2">
-            <v>6.58</v>
-          </cell>
-          <cell r="M2">
-            <v>9.39</v>
-          </cell>
-          <cell r="N2">
-            <v>9.75</v>
-          </cell>
-          <cell r="O2">
-            <v>10.65</v>
-          </cell>
-          <cell r="P2">
-            <v>11.37</v>
-          </cell>
-          <cell r="Q2">
-            <v>11.01</v>
-          </cell>
-          <cell r="R2">
-            <v>4.37</v>
-          </cell>
-          <cell r="S2">
-            <v>5.17</v>
-          </cell>
-          <cell r="T2">
-            <v>6.09</v>
-          </cell>
-          <cell r="U2">
-            <v>4.7699999999999996</v>
-          </cell>
-          <cell r="V2">
-            <v>4.6399999999999997</v>
-          </cell>
-          <cell r="W2">
-            <v>3.6</v>
-          </cell>
-          <cell r="X2">
-            <v>4.26</v>
-          </cell>
-          <cell r="Y2">
-            <v>20.81</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="B3">
-            <v>27.12</v>
-          </cell>
-          <cell r="C3">
-            <v>28.52</v>
-          </cell>
-          <cell r="D3">
-            <v>39.049999999999997</v>
-          </cell>
-          <cell r="E3">
-            <v>44.27</v>
-          </cell>
-          <cell r="F3">
-            <v>48.18</v>
-          </cell>
-          <cell r="G3">
-            <v>47.89</v>
-          </cell>
-          <cell r="H3">
-            <v>47.56</v>
-          </cell>
-          <cell r="I3">
-            <v>49.85</v>
-          </cell>
-          <cell r="J3">
-            <v>46.4</v>
-          </cell>
-          <cell r="K3">
-            <v>40.1</v>
-          </cell>
-          <cell r="L3">
-            <v>41.24</v>
-          </cell>
-          <cell r="M3">
-            <v>33.729999999999997</v>
-          </cell>
-          <cell r="N3">
-            <v>38.44</v>
-          </cell>
-          <cell r="O3">
-            <v>28.68</v>
-          </cell>
-          <cell r="P3">
-            <v>30.2</v>
-          </cell>
-          <cell r="Q3">
-            <v>27.12</v>
-          </cell>
-          <cell r="R3">
-            <v>18.190000000000001</v>
-          </cell>
-          <cell r="S3">
-            <v>22.68</v>
-          </cell>
-          <cell r="T3">
-            <v>14.82</v>
-          </cell>
-          <cell r="U3">
-            <v>13</v>
-          </cell>
-          <cell r="V3">
-            <v>14.51</v>
-          </cell>
-          <cell r="W3">
-            <v>17.04</v>
-          </cell>
-          <cell r="X3">
-            <v>18.21</v>
-          </cell>
-          <cell r="Y3">
-            <v>14</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="B4">
-            <v>16.43</v>
-          </cell>
-          <cell r="C4">
-            <v>15.51</v>
-          </cell>
-          <cell r="D4">
-            <v>16.440000000000001</v>
-          </cell>
-          <cell r="E4">
-            <v>16.41</v>
-          </cell>
-          <cell r="F4">
-            <v>16.920000000000002</v>
-          </cell>
-          <cell r="G4">
-            <v>14.12</v>
-          </cell>
-          <cell r="H4">
-            <v>12.35</v>
-          </cell>
-          <cell r="I4">
-            <v>11.65</v>
-          </cell>
-          <cell r="J4">
-            <v>10.45</v>
-          </cell>
-          <cell r="K4">
-            <v>9.51</v>
-          </cell>
-          <cell r="L4">
-            <v>7.8</v>
-          </cell>
-          <cell r="M4">
-            <v>7.83</v>
-          </cell>
-          <cell r="N4">
-            <v>8.5500000000000007</v>
-          </cell>
-          <cell r="O4">
-            <v>8.5500000000000007</v>
-          </cell>
-          <cell r="P4">
-            <v>9.5</v>
-          </cell>
-          <cell r="Q4">
-            <v>7.45</v>
-          </cell>
-          <cell r="R4">
-            <v>6.27</v>
-          </cell>
-          <cell r="S4">
-            <v>6.98</v>
-          </cell>
-          <cell r="T4">
-            <v>5.21</v>
-          </cell>
-          <cell r="U4">
-            <v>5.13</v>
-          </cell>
-          <cell r="V4">
-            <v>5.41</v>
-          </cell>
-          <cell r="W4">
-            <v>9.5</v>
-          </cell>
-          <cell r="X4">
-            <v>10.74</v>
-          </cell>
-          <cell r="Y4">
-            <v>10.74</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="3">
-        <row r="2">
-          <cell r="B2">
-            <v>50.01</v>
-          </cell>
-          <cell r="C2">
-            <v>45</v>
-          </cell>
-          <cell r="D2">
-            <v>49</v>
-          </cell>
-          <cell r="E2">
-            <v>37.31</v>
-          </cell>
-          <cell r="F2">
-            <v>37.31</v>
-          </cell>
-          <cell r="G2">
-            <v>48</v>
-          </cell>
-          <cell r="H2">
-            <v>50.01</v>
-          </cell>
-          <cell r="I2">
-            <v>50.01</v>
-          </cell>
-          <cell r="J2">
-            <v>48</v>
-          </cell>
-          <cell r="K2">
-            <v>46.88</v>
-          </cell>
-          <cell r="L2">
-            <v>47.88</v>
-          </cell>
-          <cell r="M2">
-            <v>47.88</v>
-          </cell>
-          <cell r="N2">
-            <v>47.88</v>
-          </cell>
-          <cell r="O2">
-            <v>47.88</v>
-          </cell>
-          <cell r="P2">
-            <v>47.88</v>
-          </cell>
-          <cell r="Q2">
-            <v>47.88</v>
-          </cell>
-          <cell r="R2">
-            <v>47.88</v>
-          </cell>
-          <cell r="S2">
-            <v>47.88</v>
-          </cell>
-          <cell r="T2">
-            <v>47.88</v>
-          </cell>
-          <cell r="U2">
-            <v>47.88</v>
-          </cell>
-          <cell r="V2">
-            <v>47.88</v>
-          </cell>
-          <cell r="W2">
-            <v>47.88</v>
-          </cell>
-          <cell r="X2">
-            <v>47.88</v>
-          </cell>
-          <cell r="Y2">
-            <v>47.88</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="B3">
-            <v>47.67</v>
-          </cell>
-          <cell r="C3">
-            <v>32.44</v>
-          </cell>
-          <cell r="D3">
-            <v>32.44</v>
-          </cell>
-          <cell r="E3">
-            <v>32.44</v>
-          </cell>
-          <cell r="F3">
-            <v>32.44</v>
-          </cell>
-          <cell r="G3">
-            <v>32.44</v>
-          </cell>
-          <cell r="H3">
-            <v>32.44</v>
-          </cell>
-          <cell r="I3">
-            <v>32.44</v>
-          </cell>
-          <cell r="J3">
-            <v>47.67</v>
-          </cell>
-          <cell r="K3">
-            <v>36.44</v>
-          </cell>
-          <cell r="L3">
-            <v>37.44</v>
-          </cell>
-          <cell r="M3">
-            <v>37.44</v>
-          </cell>
-          <cell r="N3">
-            <v>37.44</v>
-          </cell>
-          <cell r="O3">
-            <v>37.44</v>
-          </cell>
-          <cell r="P3">
-            <v>37.44</v>
-          </cell>
-          <cell r="Q3">
-            <v>40.69</v>
-          </cell>
-          <cell r="R3">
-            <v>47.67</v>
-          </cell>
-          <cell r="S3">
-            <v>44.4</v>
-          </cell>
-          <cell r="T3">
-            <v>44.4</v>
-          </cell>
-          <cell r="U3">
-            <v>44.4</v>
-          </cell>
-          <cell r="V3">
-            <v>44.4</v>
-          </cell>
-          <cell r="W3">
-            <v>47.67</v>
-          </cell>
-          <cell r="X3">
-            <v>47.67</v>
-          </cell>
-          <cell r="Y3">
-            <v>45</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="B4">
-            <v>55</v>
-          </cell>
-          <cell r="C4">
-            <v>56.99</v>
-          </cell>
-          <cell r="D4">
-            <v>56.99</v>
-          </cell>
-          <cell r="E4">
-            <v>55</v>
-          </cell>
-          <cell r="F4">
-            <v>55</v>
-          </cell>
-          <cell r="G4">
-            <v>55</v>
-          </cell>
-          <cell r="H4">
-            <v>56.99</v>
-          </cell>
-          <cell r="I4">
-            <v>56.99</v>
-          </cell>
-          <cell r="J4">
-            <v>55</v>
-          </cell>
-          <cell r="K4">
-            <v>55</v>
-          </cell>
-          <cell r="L4">
-            <v>55</v>
-          </cell>
-          <cell r="M4">
-            <v>55</v>
-          </cell>
-          <cell r="N4">
-            <v>59.95</v>
-          </cell>
-          <cell r="O4">
-            <v>59.95</v>
-          </cell>
-          <cell r="P4">
-            <v>59.95</v>
-          </cell>
-          <cell r="Q4">
-            <v>59.95</v>
-          </cell>
-          <cell r="R4">
-            <v>59.95</v>
-          </cell>
-          <cell r="S4">
-            <v>55</v>
-          </cell>
-          <cell r="T4">
-            <v>55</v>
-          </cell>
-          <cell r="U4">
-            <v>55</v>
-          </cell>
-          <cell r="V4">
-            <v>55</v>
-          </cell>
-          <cell r="W4">
-            <v>55</v>
-          </cell>
-          <cell r="X4">
-            <v>55</v>
-          </cell>
-          <cell r="Y4">
-            <v>55</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="4">
-        <row r="2">
-          <cell r="B2">
-            <v>24.97</v>
-          </cell>
-          <cell r="C2">
-            <v>24.97</v>
-          </cell>
-          <cell r="D2">
-            <v>0</v>
-          </cell>
-          <cell r="E2">
-            <v>25.97</v>
-          </cell>
-          <cell r="F2">
-            <v>0</v>
-          </cell>
-          <cell r="G2">
-            <v>24.97</v>
-          </cell>
-          <cell r="H2">
-            <v>29.75</v>
-          </cell>
-          <cell r="I2">
-            <v>29.75</v>
-          </cell>
-          <cell r="J2">
-            <v>24.97</v>
-          </cell>
-          <cell r="K2">
-            <v>29.75</v>
-          </cell>
-          <cell r="L2">
-            <v>24.97</v>
-          </cell>
-          <cell r="M2">
-            <v>24.97</v>
-          </cell>
-          <cell r="N2">
-            <v>24.97</v>
-          </cell>
-          <cell r="O2">
-            <v>25.01</v>
-          </cell>
-          <cell r="P2">
-            <v>24.97</v>
-          </cell>
-          <cell r="Q2">
-            <v>24.97</v>
-          </cell>
-          <cell r="R2">
-            <v>29.75</v>
-          </cell>
-          <cell r="S2">
-            <v>29.75</v>
-          </cell>
-          <cell r="T2">
-            <v>29.75</v>
-          </cell>
-          <cell r="U2">
-            <v>29.75</v>
-          </cell>
-          <cell r="V2">
-            <v>29.75</v>
-          </cell>
-          <cell r="W2">
-            <v>29.75</v>
-          </cell>
-          <cell r="X2">
-            <v>29.75</v>
-          </cell>
-          <cell r="Y2">
-            <v>29.75</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="B3">
-            <v>4.22</v>
-          </cell>
-          <cell r="C3">
-            <v>0</v>
-          </cell>
-          <cell r="D3">
-            <v>4.22</v>
-          </cell>
-          <cell r="E3">
-            <v>4.22</v>
-          </cell>
-          <cell r="F3">
-            <v>4.22</v>
-          </cell>
-          <cell r="G3">
-            <v>4.22</v>
-          </cell>
-          <cell r="H3">
-            <v>4.22</v>
-          </cell>
-          <cell r="I3">
-            <v>4.22</v>
-          </cell>
-          <cell r="J3">
-            <v>4.22</v>
-          </cell>
-          <cell r="K3">
-            <v>0</v>
-          </cell>
-          <cell r="L3">
-            <v>0</v>
-          </cell>
-          <cell r="M3">
-            <v>0</v>
-          </cell>
-          <cell r="N3">
-            <v>0</v>
-          </cell>
-          <cell r="O3">
-            <v>0</v>
-          </cell>
-          <cell r="P3">
-            <v>0</v>
-          </cell>
-          <cell r="Q3">
-            <v>0</v>
-          </cell>
-          <cell r="R3">
-            <v>0</v>
-          </cell>
-          <cell r="S3">
-            <v>5.8</v>
-          </cell>
-          <cell r="T3">
-            <v>5.9</v>
-          </cell>
-          <cell r="U3">
-            <v>5.9</v>
-          </cell>
-          <cell r="V3">
-            <v>6.1</v>
-          </cell>
-          <cell r="W3">
-            <v>5.9</v>
-          </cell>
-          <cell r="X3">
-            <v>5.6</v>
-          </cell>
-          <cell r="Y3">
-            <v>36.6</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="B4">
-            <v>0</v>
-          </cell>
-          <cell r="C4">
-            <v>31.75</v>
-          </cell>
-          <cell r="D4">
-            <v>29.5</v>
-          </cell>
-          <cell r="E4">
-            <v>31.75</v>
-          </cell>
-          <cell r="F4">
-            <v>31.75</v>
-          </cell>
-          <cell r="G4">
-            <v>31.75</v>
-          </cell>
-          <cell r="H4">
-            <v>44.9</v>
-          </cell>
-          <cell r="I4">
-            <v>31.75</v>
-          </cell>
-          <cell r="J4">
-            <v>39.99</v>
-          </cell>
-          <cell r="K4">
-            <v>40.01</v>
-          </cell>
-          <cell r="L4">
-            <v>40.01</v>
-          </cell>
-          <cell r="M4">
-            <v>40.01</v>
-          </cell>
-          <cell r="N4">
-            <v>39.99</v>
-          </cell>
-          <cell r="O4">
-            <v>39.99</v>
-          </cell>
-          <cell r="P4">
-            <v>39.99</v>
-          </cell>
-          <cell r="Q4">
-            <v>39.99</v>
-          </cell>
-          <cell r="R4">
-            <v>40.020000000000003</v>
-          </cell>
-          <cell r="S4">
-            <v>44</v>
-          </cell>
-          <cell r="T4">
-            <v>44</v>
-          </cell>
-          <cell r="U4">
-            <v>44</v>
-          </cell>
-          <cell r="V4">
-            <v>44</v>
-          </cell>
-          <cell r="W4">
-            <v>40.99</v>
-          </cell>
-          <cell r="X4">
-            <v>31.75</v>
-          </cell>
-          <cell r="Y4">
-            <v>31.75</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2299,7 +2221,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
@@ -2437,99 +2359,99 @@
         <v>1</v>
       </c>
       <c r="B2" s="2">
-        <f>'[2]Energy, Winter'!B2*(1+[2]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Energy, Winter'!B2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
         <v>47.228625993265034</v>
       </c>
       <c r="C2" s="2">
-        <f>'[2]Energy, Winter'!C2*(1+[2]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Energy, Winter'!C2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
         <v>45.853820099625473</v>
       </c>
       <c r="D2" s="2">
-        <f>'[2]Energy, Winter'!D2*(1+[2]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Energy, Winter'!D2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
         <v>40.435467459987187</v>
       </c>
       <c r="E2" s="2">
-        <f>'[2]Energy, Winter'!E2*(1+[2]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Energy, Winter'!E2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
         <v>40.47590292744718</v>
       </c>
       <c r="F2" s="2">
-        <f>'[2]Energy, Winter'!F2*(1+[2]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Energy, Winter'!F2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
         <v>45.274245066032329</v>
       </c>
       <c r="G2" s="2">
-        <f>'[2]Energy, Winter'!G2*(1+[2]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Energy, Winter'!G2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
         <v>44.950761326352428</v>
       </c>
       <c r="H2" s="2">
-        <f>'[2]Energy, Winter'!H2*(1+[2]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Energy, Winter'!H2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
         <v>45.840341610472137</v>
       </c>
       <c r="I2" s="2">
-        <f>'[2]Energy, Winter'!I2*(1+[2]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Energy, Winter'!I2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
         <v>47.619502178711578</v>
       </c>
       <c r="J2" s="2">
-        <f>'[2]Energy, Winter'!J2*(1+[2]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Energy, Winter'!J2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
         <v>49.789538932397555</v>
       </c>
       <c r="K2" s="2">
-        <f>'[2]Energy, Winter'!K2*(1+[2]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Energy, Winter'!K2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
         <v>52.21566697999679</v>
       </c>
       <c r="L2" s="2">
-        <f>'[2]Energy, Winter'!L2*(1+[2]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Energy, Winter'!L2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
         <v>49.331270301184375</v>
       </c>
       <c r="M2" s="2">
-        <f>'[2]Energy, Winter'!M2*(1+[2]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Energy, Winter'!M2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
         <v>46.082954415232066</v>
       </c>
       <c r="N2" s="2">
-        <f>'[2]Energy, Winter'!N2*(1+[2]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Energy, Winter'!N2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
         <v>45.826863121318816</v>
       </c>
       <c r="O2" s="2">
-        <f>'[2]Energy, Winter'!O2*(1+[2]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Energy, Winter'!O2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
         <v>45.826863121318816</v>
       </c>
       <c r="P2" s="2">
-        <f>'[2]Energy, Winter'!P2*(1+[2]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Energy, Winter'!P2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
         <v>40.435467459987187</v>
       </c>
       <c r="Q2" s="2">
-        <f>'[2]Energy, Winter'!Q2*(1+[2]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Energy, Winter'!Q2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
         <v>38.818048761587704</v>
       </c>
       <c r="R2" s="2">
-        <f>'[2]Energy, Winter'!R2*(1+[2]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Energy, Winter'!R2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
         <v>40.300682568453894</v>
       </c>
       <c r="S2" s="2">
-        <f>'[2]Energy, Winter'!S2*(1+[2]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Energy, Winter'!S2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
         <v>51.555221011483667</v>
       </c>
       <c r="T2" s="2">
-        <f>'[2]Energy, Winter'!T2*(1+[2]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Energy, Winter'!T2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
         <v>53.846564167549609</v>
       </c>
       <c r="U2" s="2">
-        <f>'[2]Energy, Winter'!U2*(1+[2]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Energy, Winter'!U2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
         <v>55.868337540548971</v>
       </c>
       <c r="V2" s="2">
-        <f>'[2]Energy, Winter'!V2*(1+[2]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Energy, Winter'!V2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
         <v>60.424066874374184</v>
       </c>
       <c r="W2" s="2">
-        <f>'[2]Energy, Winter'!W2*(1+[2]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Energy, Winter'!W2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
         <v>60.410588385220862</v>
       </c>
       <c r="X2" s="2">
-        <f>'[2]Energy, Winter'!X2*(1+[2]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Energy, Winter'!X2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
         <v>55.127020637115862</v>
       </c>
       <c r="Y2" s="2">
-        <f>'[2]Energy, Winter'!Y2*(1+[2]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Energy, Winter'!Y2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
         <v>53.576994384483022</v>
       </c>
     </row>
@@ -2538,99 +2460,99 @@
         <v>2</v>
       </c>
       <c r="B3" s="2">
-        <f>'[2]Energy, Winter'!B3*(1+[2]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Energy, Winter'!B3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
         <v>40.772429688820417</v>
       </c>
       <c r="C3" s="2">
-        <f>'[2]Energy, Winter'!C3*(1+[2]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Energy, Winter'!C3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
         <v>36.189743376688533</v>
       </c>
       <c r="D3" s="2">
-        <f>'[2]Energy, Winter'!D3*(1+[2]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Energy, Winter'!D3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
         <v>29.989638366157166</v>
       </c>
       <c r="E3" s="2">
-        <f>'[2]Energy, Winter'!E3*(1+[2]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Energy, Winter'!E3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
         <v>24.382586878372276</v>
       </c>
       <c r="F3" s="2">
-        <f>'[2]Energy, Winter'!F3*(1+[2]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Energy, Winter'!F3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
         <v>13.478489153329063</v>
       </c>
       <c r="G3" s="2">
-        <f>'[2]Energy, Winter'!G3*(1+[2]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Energy, Winter'!G3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
         <v>10.78279132266325</v>
       </c>
       <c r="H3" s="2">
-        <f>'[2]Energy, Winter'!H3*(1+[2]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Energy, Winter'!H3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
         <v>11.335409377949743</v>
       </c>
       <c r="I3" s="2">
-        <f>'[2]Energy, Winter'!I3*(1+[2]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Energy, Winter'!I3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
         <v>11.335409377949743</v>
       </c>
       <c r="J3" s="2">
-        <f>'[2]Energy, Winter'!J3*(1+[2]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Energy, Winter'!J3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
         <v>14.556768285595389</v>
       </c>
       <c r="K3" s="2">
-        <f>'[2]Energy, Winter'!K3*(1+[2]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Energy, Winter'!K3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
         <v>22.899953071506076</v>
       </c>
       <c r="L3" s="2">
-        <f>'[2]Energy, Winter'!L3*(1+[2]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Energy, Winter'!L3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
         <v>26.336967805604989</v>
       </c>
       <c r="M3" s="2">
-        <f>'[2]Energy, Winter'!M3*(1+[2]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Energy, Winter'!M3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
         <v>24.153452562765683</v>
       </c>
       <c r="N3" s="2">
-        <f>'[2]Energy, Winter'!N3*(1+[2]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Energy, Winter'!N3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
         <v>30.663562823823618</v>
       </c>
       <c r="O3" s="2">
-        <f>'[2]Energy, Winter'!O3*(1+[2]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Energy, Winter'!O3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
         <v>26.956978306658126</v>
       </c>
       <c r="P3" s="2">
-        <f>'[2]Energy, Winter'!P3*(1+[2]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Energy, Winter'!P3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
         <v>29.073101103730789</v>
       </c>
       <c r="Q3" s="2">
-        <f>'[2]Energy, Winter'!Q3*(1+[2]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Energy, Winter'!Q3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
         <v>26.148268957458381</v>
       </c>
       <c r="R3" s="2">
-        <f>'[2]Energy, Winter'!R3*(1+[2]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Energy, Winter'!R3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
         <v>32.078804184923172</v>
       </c>
       <c r="S3" s="2">
-        <f>'[2]Energy, Winter'!S3*(1+[2]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Energy, Winter'!S3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
         <v>39.491973219254156</v>
       </c>
       <c r="T3" s="2">
-        <f>'[2]Energy, Winter'!T3*(1+[2]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Energy, Winter'!T3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
         <v>47.538631243791606</v>
       </c>
       <c r="U3" s="2">
-        <f>'[2]Energy, Winter'!U3*(1+[2]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Energy, Winter'!U3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
         <v>55.261805528649155</v>
       </c>
       <c r="V3" s="2">
-        <f>'[2]Energy, Winter'!V3*(1+[2]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Energy, Winter'!V3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
         <v>57.984460337621634</v>
       </c>
       <c r="W3" s="2">
-        <f>'[2]Energy, Winter'!W3*(1+[2]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Energy, Winter'!W3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
         <v>57.95750335931497</v>
       </c>
       <c r="X3" s="2">
-        <f>'[2]Energy, Winter'!X3*(1+[2]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Energy, Winter'!X3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
         <v>55.760509627322328</v>
       </c>
       <c r="Y3" s="2">
-        <f>'[2]Energy, Winter'!Y3*(1+[2]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Energy, Winter'!Y3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
         <v>55.733552649015678</v>
       </c>
     </row>
@@ -2639,99 +2561,99 @@
         <v>3</v>
       </c>
       <c r="B4" s="2">
-        <f>'[2]Energy, Winter'!B4*(1+[2]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Energy, Winter'!B4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
         <v>62.809759454513433</v>
       </c>
       <c r="C4" s="2">
-        <f>'[2]Energy, Winter'!C4*(1+[2]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Energy, Winter'!C4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
         <v>58.011417315928284</v>
       </c>
       <c r="D4" s="2">
-        <f>'[2]Energy, Winter'!D4*(1+[2]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Energy, Winter'!D4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
         <v>56.704003868055366</v>
       </c>
       <c r="E4" s="2">
-        <f>'[2]Energy, Winter'!E4*(1+[2]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Energy, Winter'!E4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
         <v>52.323494893223426</v>
       </c>
       <c r="F4" s="2">
-        <f>'[2]Energy, Winter'!F4*(1+[2]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Energy, Winter'!F4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
         <v>52.687414100363313</v>
       </c>
       <c r="G4" s="2">
-        <f>'[2]Energy, Winter'!G4*(1+[2]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Energy, Winter'!G4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
         <v>58.240551631534885</v>
       </c>
       <c r="H4" s="2">
-        <f>'[2]Energy, Winter'!H4*(1+[2]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Energy, Winter'!H4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
         <v>73.309502504956768</v>
       </c>
       <c r="I4" s="2">
-        <f>'[2]Energy, Winter'!I4*(1+[2]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Energy, Winter'!I4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
         <v>76.840866663128992</v>
       </c>
       <c r="J4" s="2">
-        <f>'[2]Energy, Winter'!J4*(1+[2]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Energy, Winter'!J4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
         <v>80.897891898281046</v>
       </c>
       <c r="K4" s="2">
-        <f>'[2]Energy, Winter'!K4*(1+[2]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Energy, Winter'!K4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
         <v>79.347865645648184</v>
       </c>
       <c r="L4" s="2">
-        <f>'[2]Energy, Winter'!L4*(1+[2]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Energy, Winter'!L4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
         <v>78.444806872375153</v>
       </c>
       <c r="M4" s="2">
-        <f>'[2]Energy, Winter'!M4*(1+[2]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Energy, Winter'!M4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
         <v>79.064817373428284</v>
       </c>
       <c r="N4" s="2">
-        <f>'[2]Energy, Winter'!N4*(1+[2]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Energy, Winter'!N4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
         <v>75.493017747796074</v>
       </c>
       <c r="O4" s="2">
-        <f>'[2]Energy, Winter'!O4*(1+[2]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Energy, Winter'!O4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
         <v>74.212561278229828</v>
       </c>
       <c r="P4" s="2">
-        <f>'[2]Energy, Winter'!P4*(1+[2]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Energy, Winter'!P4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
         <v>74.252996745689813</v>
       </c>
       <c r="Q4" s="2">
-        <f>'[2]Energy, Winter'!Q4*(1+[2]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Energy, Winter'!Q4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
         <v>74.967356670816244</v>
       </c>
       <c r="R4" s="2">
-        <f>'[2]Energy, Winter'!R4*(1+[2]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Energy, Winter'!R4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
         <v>75.829979976629303</v>
       </c>
       <c r="S4" s="2">
-        <f>'[2]Energy, Winter'!S4*(1+[2]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Energy, Winter'!S4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
         <v>76.490425945142434</v>
       </c>
       <c r="T4" s="2">
-        <f>'[2]Energy, Winter'!T4*(1+[2]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Energy, Winter'!T4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
         <v>80.210488951461244</v>
       </c>
       <c r="U4" s="2">
-        <f>'[2]Energy, Winter'!U4*(1+[2]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Energy, Winter'!U4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
         <v>80.29135988638123</v>
       </c>
       <c r="V4" s="2">
-        <f>'[2]Energy, Winter'!V4*(1+[2]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Energy, Winter'!V4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
         <v>76.490425945142434</v>
       </c>
       <c r="W4" s="2">
-        <f>'[2]Energy, Winter'!W4*(1+[2]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Energy, Winter'!W4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
         <v>70.42510582614436</v>
       </c>
       <c r="X4" s="2">
-        <f>'[2]Energy, Winter'!X4*(1+[2]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Energy, Winter'!X4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
         <v>63.36237750979992</v>
       </c>
       <c r="Y4" s="2">
-        <f>'[2]Energy, Winter'!Y4*(1+[2]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Energy, Winter'!Y4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
         <v>58.860562132588022</v>
       </c>
     </row>
@@ -2885,99 +2807,99 @@
         <v>1</v>
       </c>
       <c r="B2" s="2">
-        <f>'[2]Secondary Reserve, Winter'!B2*(1+[2]Main!$B$3)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Secondary Reserve, Winter'!B2*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
         <v>5.6214811119391923</v>
       </c>
       <c r="C2" s="2">
-        <f>'[2]Secondary Reserve, Winter'!C2*(1+[2]Main!$B$3)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Secondary Reserve, Winter'!C2*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
         <v>6.7751432804341754</v>
       </c>
       <c r="D2" s="2">
-        <f>'[2]Secondary Reserve, Winter'!D2*(1+[2]Main!$B$3)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Secondary Reserve, Winter'!D2*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
         <v>15.941513601021589</v>
       </c>
       <c r="E2" s="2">
-        <f>'[2]Secondary Reserve, Winter'!E2*(1+[2]Main!$B$3)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Secondary Reserve, Winter'!E2*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
         <v>9.1453946447965961</v>
       </c>
       <c r="F2" s="2">
-        <f>'[2]Secondary Reserve, Winter'!F2*(1+[2]Main!$B$3)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Secondary Reserve, Winter'!F2*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
         <v>9.2502730237506849</v>
       </c>
       <c r="G2" s="2">
-        <f>'[2]Secondary Reserve, Winter'!G2*(1+[2]Main!$B$3)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Secondary Reserve, Winter'!G2*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
         <v>12.543454122909093</v>
       </c>
       <c r="H2" s="2">
-        <f>'[2]Secondary Reserve, Winter'!H2*(1+[2]Main!$B$3)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Secondary Reserve, Winter'!H2*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
         <v>10.886375735434481</v>
       </c>
       <c r="I2" s="2">
-        <f>'[2]Secondary Reserve, Winter'!I2*(1+[2]Main!$B$3)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Secondary Reserve, Winter'!I2*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
         <v>12.753210880817271</v>
       </c>
       <c r="J2" s="2">
-        <f>'[2]Secondary Reserve, Winter'!J2*(1+[2]Main!$B$3)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Secondary Reserve, Winter'!J2*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
         <v>9.8166162701027666</v>
       </c>
       <c r="K2" s="2">
-        <f>'[2]Secondary Reserve, Winter'!K2*(1+[2]Main!$B$3)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Secondary Reserve, Winter'!K2*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
         <v>9.3341757269139567</v>
       </c>
       <c r="L2" s="2">
-        <f>'[2]Secondary Reserve, Winter'!L2*(1+[2]Main!$B$3)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Secondary Reserve, Winter'!L2*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
         <v>13.801994670358166</v>
       </c>
       <c r="M2" s="2">
-        <f>'[2]Secondary Reserve, Winter'!M2*(1+[2]Main!$B$3)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Secondary Reserve, Winter'!M2*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
         <v>19.69615956757799</v>
       </c>
       <c r="N2" s="2">
-        <f>'[2]Secondary Reserve, Winter'!N2*(1+[2]Main!$B$3)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Secondary Reserve, Winter'!N2*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
         <v>20.451283896047432</v>
       </c>
       <c r="O2" s="2">
-        <f>'[2]Secondary Reserve, Winter'!O2*(1+[2]Main!$B$3)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Secondary Reserve, Winter'!O2*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
         <v>22.339094717221045</v>
       </c>
       <c r="P2" s="2">
-        <f>'[2]Secondary Reserve, Winter'!P2*(1+[2]Main!$B$3)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Secondary Reserve, Winter'!P2*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
         <v>23.849343374159929</v>
       </c>
       <c r="Q2" s="2">
-        <f>'[2]Secondary Reserve, Winter'!Q2*(1+[2]Main!$B$3)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Secondary Reserve, Winter'!Q2*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
         <v>23.094219045690487</v>
       </c>
       <c r="R2" s="2">
-        <f>'[2]Secondary Reserve, Winter'!R2*(1+[2]Main!$B$3)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Secondary Reserve, Winter'!R2*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
         <v>9.1663703205874132</v>
       </c>
       <c r="S2" s="2">
-        <f>'[2]Secondary Reserve, Winter'!S2*(1+[2]Main!$B$3)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Secondary Reserve, Winter'!S2*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
         <v>10.844424383852845</v>
       </c>
       <c r="T2" s="2">
-        <f>'[2]Secondary Reserve, Winter'!T2*(1+[2]Main!$B$3)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Secondary Reserve, Winter'!T2*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
         <v>12.77418655660809</v>
       </c>
       <c r="U2" s="2">
-        <f>'[2]Secondary Reserve, Winter'!U2*(1+[2]Main!$B$3)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Secondary Reserve, Winter'!U2*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
         <v>10.005397352220127</v>
       </c>
       <c r="V2" s="2">
-        <f>'[2]Secondary Reserve, Winter'!V2*(1+[2]Main!$B$3)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Secondary Reserve, Winter'!V2*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
         <v>9.7327135669394966</v>
       </c>
       <c r="W2" s="2">
-        <f>'[2]Secondary Reserve, Winter'!W2*(1+[2]Main!$B$3)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Secondary Reserve, Winter'!W2*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
         <v>7.5512432846944373</v>
       </c>
       <c r="X2" s="2">
-        <f>'[2]Secondary Reserve, Winter'!X2*(1+[2]Main!$B$3)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Secondary Reserve, Winter'!X2*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
         <v>8.9356378868884168</v>
       </c>
       <c r="Y2" s="2">
-        <f>'[2]Secondary Reserve, Winter'!Y2*(1+[2]Main!$B$3)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Secondary Reserve, Winter'!Y2*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
         <v>43.650381320692006</v>
       </c>
     </row>
@@ -2986,99 +2908,99 @@
         <v>2</v>
       </c>
       <c r="B3" s="2">
-        <f>'[2]Secondary Reserve, Winter'!B3*(1+[2]Main!$B$3)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Secondary Reserve, Winter'!B3*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
         <v>56.886032744698092</v>
       </c>
       <c r="C3" s="2">
-        <f>'[2]Secondary Reserve, Winter'!C3*(1+[2]Main!$B$3)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Secondary Reserve, Winter'!C3*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
         <v>59.822627355412592</v>
       </c>
       <c r="D3" s="2">
-        <f>'[2]Secondary Reserve, Winter'!D3*(1+[2]Main!$B$3)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Secondary Reserve, Winter'!D3*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
         <v>81.910013963143811</v>
       </c>
       <c r="E3" s="2">
-        <f>'[2]Secondary Reserve, Winter'!E3*(1+[2]Main!$B$3)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Secondary Reserve, Winter'!E3*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
         <v>92.859316725950762</v>
       </c>
       <c r="F3" s="2">
-        <f>'[2]Secondary Reserve, Winter'!F3*(1+[2]Main!$B$3)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Secondary Reserve, Winter'!F3*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
         <v>101.06080596016055</v>
       </c>
       <c r="G3" s="2">
-        <f>'[2]Secondary Reserve, Winter'!G3*(1+[2]Main!$B$3)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Secondary Reserve, Winter'!G3*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
         <v>100.45251136222683</v>
       </c>
       <c r="H3" s="2">
-        <f>'[2]Secondary Reserve, Winter'!H3*(1+[2]Main!$B$3)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Secondary Reserve, Winter'!H3*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
         <v>99.760314061129847</v>
       </c>
       <c r="I3" s="2">
-        <f>'[2]Secondary Reserve, Winter'!I3*(1+[2]Main!$B$3)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Secondary Reserve, Winter'!I3*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
         <v>104.56374381722713</v>
       </c>
       <c r="J3" s="2">
-        <f>'[2]Secondary Reserve, Winter'!J3*(1+[2]Main!$B$3)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Secondary Reserve, Winter'!J3*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
         <v>97.327135669394963</v>
       </c>
       <c r="K3" s="2">
-        <f>'[2]Secondary Reserve, Winter'!K3*(1+[2]Main!$B$3)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Secondary Reserve, Winter'!K3*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
         <v>84.112459921179706</v>
       </c>
       <c r="L3" s="2">
-        <f>'[2]Secondary Reserve, Winter'!L3*(1+[2]Main!$B$3)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Secondary Reserve, Winter'!L3*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
         <v>86.503686961332946</v>
       </c>
       <c r="M3" s="2">
-        <f>'[2]Secondary Reserve, Winter'!M3*(1+[2]Main!$B$3)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Secondary Reserve, Winter'!M3*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
         <v>70.750954442428707</v>
       </c>
       <c r="N3" s="2">
-        <f>'[2]Secondary Reserve, Winter'!N3*(1+[2]Main!$B$3)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Secondary Reserve, Winter'!N3*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
         <v>80.63049773990393</v>
       </c>
       <c r="O3" s="2">
-        <f>'[2]Secondary Reserve, Winter'!O3*(1+[2]Main!$B$3)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Secondary Reserve, Winter'!O3*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
         <v>60.158238168065679</v>
       </c>
       <c r="P3" s="2">
-        <f>'[2]Secondary Reserve, Winter'!P3*(1+[2]Main!$B$3)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Secondary Reserve, Winter'!P3*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
         <v>63.346540888269999</v>
       </c>
       <c r="Q3" s="2">
-        <f>'[2]Secondary Reserve, Winter'!Q3*(1+[2]Main!$B$3)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Secondary Reserve, Winter'!Q3*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
         <v>56.886032744698092</v>
       </c>
       <c r="R3" s="2">
-        <f>'[2]Secondary Reserve, Winter'!R3*(1+[2]Main!$B$3)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Secondary Reserve, Winter'!R3*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
         <v>38.154754263497729</v>
       </c>
       <c r="S3" s="2">
-        <f>'[2]Secondary Reserve, Winter'!S3*(1+[2]Main!$B$3)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Secondary Reserve, Winter'!S3*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
         <v>47.572832693574952</v>
       </c>
       <c r="T3" s="2">
-        <f>'[2]Secondary Reserve, Winter'!T3*(1+[2]Main!$B$3)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Secondary Reserve, Winter'!T3*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
         <v>31.085951521992101</v>
       </c>
       <c r="U3" s="2">
-        <f>'[2]Secondary Reserve, Winter'!U3*(1+[2]Main!$B$3)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Secondary Reserve, Winter'!U3*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
         <v>27.268378528063245</v>
       </c>
       <c r="V3" s="2">
-        <f>'[2]Secondary Reserve, Winter'!V3*(1+[2]Main!$B$3)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Secondary Reserve, Winter'!V3*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
         <v>30.435705572476746</v>
       </c>
       <c r="W3" s="2">
-        <f>'[2]Secondary Reserve, Winter'!W3*(1+[2]Main!$B$3)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Secondary Reserve, Winter'!W3*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
         <v>35.742551547553667</v>
       </c>
       <c r="X3" s="2">
-        <f>'[2]Secondary Reserve, Winter'!X3*(1+[2]Main!$B$3)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Secondary Reserve, Winter'!X3*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
         <v>38.19670561507936</v>
       </c>
       <c r="Y3" s="2">
-        <f>'[2]Secondary Reserve, Winter'!Y3*(1+[2]Main!$B$3)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Secondary Reserve, Winter'!Y3*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
         <v>29.365946107145032</v>
       </c>
     </row>
@@ -3087,99 +3009,99 @@
         <v>3</v>
       </c>
       <c r="B4" s="2">
-        <f>'[2]Secondary Reserve, Winter'!B4*(1+[2]Main!$B$3)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Secondary Reserve, Winter'!B4*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
         <v>34.463035324313779</v>
       </c>
       <c r="C4" s="2">
-        <f>'[2]Secondary Reserve, Winter'!C4*(1+[2]Main!$B$3)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Secondary Reserve, Winter'!C4*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
         <v>32.533273151558532</v>
       </c>
       <c r="D4" s="2">
-        <f>'[2]Secondary Reserve, Winter'!D4*(1+[2]Main!$B$3)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Secondary Reserve, Winter'!D4*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
         <v>34.484011000104601</v>
       </c>
       <c r="E4" s="2">
-        <f>'[2]Secondary Reserve, Winter'!E4*(1+[2]Main!$B$3)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Secondary Reserve, Winter'!E4*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
         <v>34.421083972732141</v>
       </c>
       <c r="F4" s="2">
-        <f>'[2]Secondary Reserve, Winter'!F4*(1+[2]Main!$B$3)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Secondary Reserve, Winter'!F4*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
         <v>35.490843438063855</v>
       </c>
       <c r="G4" s="2">
-        <f>'[2]Secondary Reserve, Winter'!G4*(1+[2]Main!$B$3)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Secondary Reserve, Winter'!G4*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
         <v>29.617654216634847</v>
       </c>
       <c r="H4" s="2">
-        <f>'[2]Secondary Reserve, Winter'!H4*(1+[2]Main!$B$3)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Secondary Reserve, Winter'!H4*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
         <v>25.904959601660082</v>
       </c>
       <c r="I4" s="2">
-        <f>'[2]Secondary Reserve, Winter'!I4*(1+[2]Main!$B$3)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Secondary Reserve, Winter'!I4*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
         <v>24.436662296302831</v>
       </c>
       <c r="J4" s="2">
-        <f>'[2]Secondary Reserve, Winter'!J4*(1+[2]Main!$B$3)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Secondary Reserve, Winter'!J4*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
         <v>21.919581201404682</v>
       </c>
       <c r="K4" s="2">
-        <f>'[2]Secondary Reserve, Winter'!K4*(1+[2]Main!$B$3)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Secondary Reserve, Winter'!K4*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
         <v>19.947867677067805</v>
       </c>
       <c r="L4" s="2">
-        <f>'[2]Secondary Reserve, Winter'!L4*(1+[2]Main!$B$3)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Secondary Reserve, Winter'!L4*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
         <v>16.361027116837946</v>
       </c>
       <c r="M4" s="2">
-        <f>'[2]Secondary Reserve, Winter'!M4*(1+[2]Main!$B$3)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Secondary Reserve, Winter'!M4*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
         <v>16.423954144210402</v>
       </c>
       <c r="N4" s="2">
-        <f>'[2]Secondary Reserve, Winter'!N4*(1+[2]Main!$B$3)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Secondary Reserve, Winter'!N4*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
         <v>17.93420280114929</v>
       </c>
       <c r="O4" s="2">
-        <f>'[2]Secondary Reserve, Winter'!O4*(1+[2]Main!$B$3)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Secondary Reserve, Winter'!O4*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
         <v>17.93420280114929</v>
       </c>
       <c r="P4" s="2">
-        <f>'[2]Secondary Reserve, Winter'!P4*(1+[2]Main!$B$3)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Secondary Reserve, Winter'!P4*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
         <v>19.926892001276986</v>
       </c>
       <c r="Q4" s="2">
-        <f>'[2]Secondary Reserve, Winter'!Q4*(1+[2]Main!$B$3)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Secondary Reserve, Winter'!Q4*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
         <v>15.62687846415932</v>
       </c>
       <c r="R4" s="2">
-        <f>'[2]Secondary Reserve, Winter'!R4*(1+[2]Main!$B$3)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Secondary Reserve, Winter'!R4*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
         <v>13.151748720842811</v>
       </c>
       <c r="S4" s="2">
-        <f>'[2]Secondary Reserve, Winter'!S4*(1+[2]Main!$B$3)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Secondary Reserve, Winter'!S4*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
         <v>14.641021701990882</v>
       </c>
       <c r="T4" s="2">
-        <f>'[2]Secondary Reserve, Winter'!T4*(1+[2]Main!$B$3)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Secondary Reserve, Winter'!T4*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
         <v>10.928327087016116</v>
       </c>
       <c r="U4" s="2">
-        <f>'[2]Secondary Reserve, Winter'!U4*(1+[2]Main!$B$3)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Secondary Reserve, Winter'!U4*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
         <v>10.760521680689573</v>
       </c>
       <c r="V4" s="2">
-        <f>'[2]Secondary Reserve, Winter'!V4*(1+[2]Main!$B$3)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Secondary Reserve, Winter'!V4*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
         <v>11.347840602832473</v>
       </c>
       <c r="W4" s="2">
-        <f>'[2]Secondary Reserve, Winter'!W4*(1+[2]Main!$B$3)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Secondary Reserve, Winter'!W4*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
         <v>19.926892001276986</v>
       </c>
       <c r="X4" s="2">
-        <f>'[2]Secondary Reserve, Winter'!X4*(1+[2]Main!$B$3)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Secondary Reserve, Winter'!X4*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
         <v>22.527875799338403</v>
       </c>
       <c r="Y4" s="2">
-        <f>'[2]Secondary Reserve, Winter'!Y4*(1+[2]Main!$B$3)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Secondary Reserve, Winter'!Y4*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
         <v>22.527875799338403</v>
       </c>
     </row>
@@ -3358,99 +3280,99 @@
         <v>1</v>
       </c>
       <c r="B2" s="2">
-        <f>'[2]Tertiary Reserve Up, Winter'!B2*(1+[2]Main!$B$4)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Up, Winter'!B2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
         <v>104.89935462988022</v>
       </c>
       <c r="C2" s="2">
-        <f>'[2]Tertiary Reserve Up, Winter'!C2*(1+[2]Main!$B$4)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Up, Winter'!C2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
         <v>94.390541058680455</v>
       </c>
       <c r="D2" s="2">
-        <f>'[2]Tertiary Reserve Up, Winter'!D2*(1+[2]Main!$B$4)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Up, Winter'!D2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
         <v>102.78081137500762</v>
       </c>
       <c r="E2" s="2">
-        <f>'[2]Tertiary Reserve Up, Winter'!E2*(1+[2]Main!$B$4)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Up, Winter'!E2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
         <v>78.260246375541513</v>
       </c>
       <c r="F2" s="2">
-        <f>'[2]Tertiary Reserve Up, Winter'!F2*(1+[2]Main!$B$4)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Up, Winter'!F2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
         <v>78.260246375541513</v>
       </c>
       <c r="G2" s="2">
-        <f>'[2]Tertiary Reserve Up, Winter'!G2*(1+[2]Main!$B$4)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Up, Winter'!G2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
         <v>100.68324379592582</v>
       </c>
       <c r="H2" s="2">
-        <f>'[2]Tertiary Reserve Up, Winter'!H2*(1+[2]Main!$B$4)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Up, Winter'!H2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
         <v>104.89935462988022</v>
       </c>
       <c r="I2" s="2">
-        <f>'[2]Tertiary Reserve Up, Winter'!I2*(1+[2]Main!$B$4)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Up, Winter'!I2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
         <v>104.89935462988022</v>
       </c>
       <c r="J2" s="2">
-        <f>'[2]Tertiary Reserve Up, Winter'!J2*(1+[2]Main!$B$4)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Up, Winter'!J2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
         <v>100.68324379592582</v>
       </c>
       <c r="K2" s="2">
-        <f>'[2]Tertiary Reserve Up, Winter'!K2*(1+[2]Main!$B$4)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Up, Winter'!K2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
         <v>98.333968107354224</v>
       </c>
       <c r="L2" s="2">
-        <f>'[2]Tertiary Reserve Up, Winter'!L2*(1+[2]Main!$B$4)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Up, Winter'!L2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
         <v>100.43153568643602</v>
       </c>
       <c r="M2" s="2">
-        <f>'[2]Tertiary Reserve Up, Winter'!M2*(1+[2]Main!$B$4)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Up, Winter'!M2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
         <v>100.43153568643602</v>
       </c>
       <c r="N2" s="2">
-        <f>'[2]Tertiary Reserve Up, Winter'!N2*(1+[2]Main!$B$4)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Up, Winter'!N2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
         <v>100.43153568643602</v>
       </c>
       <c r="O2" s="2">
-        <f>'[2]Tertiary Reserve Up, Winter'!O2*(1+[2]Main!$B$4)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Up, Winter'!O2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
         <v>100.43153568643602</v>
       </c>
       <c r="P2" s="2">
-        <f>'[2]Tertiary Reserve Up, Winter'!P2*(1+[2]Main!$B$4)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Up, Winter'!P2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
         <v>100.43153568643602</v>
       </c>
       <c r="Q2" s="2">
-        <f>'[2]Tertiary Reserve Up, Winter'!Q2*(1+[2]Main!$B$4)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Up, Winter'!Q2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
         <v>100.43153568643602</v>
       </c>
       <c r="R2" s="2">
-        <f>'[2]Tertiary Reserve Up, Winter'!R2*(1+[2]Main!$B$4)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Up, Winter'!R2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
         <v>100.43153568643602</v>
       </c>
       <c r="S2" s="2">
-        <f>'[2]Tertiary Reserve Up, Winter'!S2*(1+[2]Main!$B$4)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Up, Winter'!S2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
         <v>100.43153568643602</v>
       </c>
       <c r="T2" s="2">
-        <f>'[2]Tertiary Reserve Up, Winter'!T2*(1+[2]Main!$B$4)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Up, Winter'!T2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
         <v>100.43153568643602</v>
       </c>
       <c r="U2" s="2">
-        <f>'[2]Tertiary Reserve Up, Winter'!U2*(1+[2]Main!$B$4)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Up, Winter'!U2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
         <v>100.43153568643602</v>
       </c>
       <c r="V2" s="2">
-        <f>'[2]Tertiary Reserve Up, Winter'!V2*(1+[2]Main!$B$4)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Up, Winter'!V2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
         <v>100.43153568643602</v>
       </c>
       <c r="W2" s="2">
-        <f>'[2]Tertiary Reserve Up, Winter'!W2*(1+[2]Main!$B$4)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Up, Winter'!W2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
         <v>100.43153568643602</v>
       </c>
       <c r="X2" s="2">
-        <f>'[2]Tertiary Reserve Up, Winter'!X2*(1+[2]Main!$B$4)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Up, Winter'!X2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
         <v>100.43153568643602</v>
       </c>
       <c r="Y2" s="2">
-        <f>'[2]Tertiary Reserve Up, Winter'!Y2*(1+[2]Main!$B$4)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Up, Winter'!Y2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
         <v>100.43153568643602</v>
       </c>
     </row>
@@ -3459,99 +3381,99 @@
         <v>2</v>
       </c>
       <c r="B3" s="2">
-        <f>'[2]Tertiary Reserve Up, Winter'!B3*(1+[2]Main!$B$4)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Up, Winter'!B3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
         <v>99.991046494828836</v>
       </c>
       <c r="C3" s="2">
-        <f>'[2]Tertiary Reserve Up, Winter'!C3*(1+[2]Main!$B$4)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Up, Winter'!C3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
         <v>68.045092265413203</v>
       </c>
       <c r="D3" s="2">
-        <f>'[2]Tertiary Reserve Up, Winter'!D3*(1+[2]Main!$B$4)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Up, Winter'!D3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
         <v>68.045092265413203</v>
       </c>
       <c r="E3" s="2">
-        <f>'[2]Tertiary Reserve Up, Winter'!E3*(1+[2]Main!$B$4)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Up, Winter'!E3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
         <v>68.045092265413203</v>
       </c>
       <c r="F3" s="2">
-        <f>'[2]Tertiary Reserve Up, Winter'!F3*(1+[2]Main!$B$4)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Up, Winter'!F3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
         <v>68.045092265413203</v>
       </c>
       <c r="G3" s="2">
-        <f>'[2]Tertiary Reserve Up, Winter'!G3*(1+[2]Main!$B$4)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Up, Winter'!G3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
         <v>68.045092265413203</v>
       </c>
       <c r="H3" s="2">
-        <f>'[2]Tertiary Reserve Up, Winter'!H3*(1+[2]Main!$B$4)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Up, Winter'!H3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
         <v>68.045092265413203</v>
       </c>
       <c r="I3" s="2">
-        <f>'[2]Tertiary Reserve Up, Winter'!I3*(1+[2]Main!$B$4)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Up, Winter'!I3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
         <v>68.045092265413203</v>
       </c>
       <c r="J3" s="2">
-        <f>'[2]Tertiary Reserve Up, Winter'!J3*(1+[2]Main!$B$4)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Up, Winter'!J3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
         <v>99.991046494828836</v>
       </c>
       <c r="K3" s="2">
-        <f>'[2]Tertiary Reserve Up, Winter'!K3*(1+[2]Main!$B$4)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Up, Winter'!K3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
         <v>76.43536258174035</v>
       </c>
       <c r="L3" s="2">
-        <f>'[2]Tertiary Reserve Up, Winter'!L3*(1+[2]Main!$B$4)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Up, Winter'!L3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
         <v>78.532930160822133</v>
       </c>
       <c r="M3" s="2">
-        <f>'[2]Tertiary Reserve Up, Winter'!M3*(1+[2]Main!$B$4)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Up, Winter'!M3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
         <v>78.532930160822133</v>
       </c>
       <c r="N3" s="2">
-        <f>'[2]Tertiary Reserve Up, Winter'!N3*(1+[2]Main!$B$4)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Up, Winter'!N3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
         <v>78.532930160822133</v>
       </c>
       <c r="O3" s="2">
-        <f>'[2]Tertiary Reserve Up, Winter'!O3*(1+[2]Main!$B$4)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Up, Winter'!O3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
         <v>78.532930160822133</v>
       </c>
       <c r="P3" s="2">
-        <f>'[2]Tertiary Reserve Up, Winter'!P3*(1+[2]Main!$B$4)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Up, Winter'!P3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
         <v>78.532930160822133</v>
       </c>
       <c r="Q3" s="2">
-        <f>'[2]Tertiary Reserve Up, Winter'!Q3*(1+[2]Main!$B$4)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Up, Winter'!Q3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
         <v>85.350024792837957</v>
       </c>
       <c r="R3" s="2">
-        <f>'[2]Tertiary Reserve Up, Winter'!R3*(1+[2]Main!$B$4)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Up, Winter'!R3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
         <v>99.991046494828836</v>
       </c>
       <c r="S3" s="2">
-        <f>'[2]Tertiary Reserve Up, Winter'!S3*(1+[2]Main!$B$4)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Up, Winter'!S3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
         <v>93.132000511231382</v>
       </c>
       <c r="T3" s="2">
-        <f>'[2]Tertiary Reserve Up, Winter'!T3*(1+[2]Main!$B$4)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Up, Winter'!T3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
         <v>93.132000511231382</v>
       </c>
       <c r="U3" s="2">
-        <f>'[2]Tertiary Reserve Up, Winter'!U3*(1+[2]Main!$B$4)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Up, Winter'!U3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
         <v>93.132000511231382</v>
       </c>
       <c r="V3" s="2">
-        <f>'[2]Tertiary Reserve Up, Winter'!V3*(1+[2]Main!$B$4)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Up, Winter'!V3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
         <v>93.132000511231382</v>
       </c>
       <c r="W3" s="2">
-        <f>'[2]Tertiary Reserve Up, Winter'!W3*(1+[2]Main!$B$4)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Up, Winter'!W3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
         <v>99.991046494828836</v>
       </c>
       <c r="X3" s="2">
-        <f>'[2]Tertiary Reserve Up, Winter'!X3*(1+[2]Main!$B$4)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Up, Winter'!X3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
         <v>99.991046494828836</v>
       </c>
       <c r="Y3" s="2">
-        <f>'[2]Tertiary Reserve Up, Winter'!Y3*(1+[2]Main!$B$4)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Up, Winter'!Y3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
         <v>94.390541058680455</v>
       </c>
     </row>
@@ -3560,99 +3482,99 @@
         <v>3</v>
       </c>
       <c r="B4" s="2">
-        <f>'[2]Tertiary Reserve Up, Winter'!B4*(1+[2]Main!$B$4)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Up, Winter'!B4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
         <v>115.36621684949834</v>
       </c>
       <c r="C4" s="2">
-        <f>'[2]Tertiary Reserve Up, Winter'!C4*(1+[2]Main!$B$4)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Up, Winter'!C4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
         <v>119.5403763318711</v>
       </c>
       <c r="D4" s="2">
-        <f>'[2]Tertiary Reserve Up, Winter'!D4*(1+[2]Main!$B$4)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Up, Winter'!D4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
         <v>119.5403763318711</v>
       </c>
       <c r="E4" s="2">
-        <f>'[2]Tertiary Reserve Up, Winter'!E4*(1+[2]Main!$B$4)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Up, Winter'!E4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
         <v>115.36621684949834</v>
       </c>
       <c r="F4" s="2">
-        <f>'[2]Tertiary Reserve Up, Winter'!F4*(1+[2]Main!$B$4)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Up, Winter'!F4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
         <v>115.36621684949834</v>
       </c>
       <c r="G4" s="2">
-        <f>'[2]Tertiary Reserve Up, Winter'!G4*(1+[2]Main!$B$4)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Up, Winter'!G4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
         <v>115.36621684949834</v>
       </c>
       <c r="H4" s="2">
-        <f>'[2]Tertiary Reserve Up, Winter'!H4*(1+[2]Main!$B$4)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Up, Winter'!H4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
         <v>119.5403763318711</v>
       </c>
       <c r="I4" s="2">
-        <f>'[2]Tertiary Reserve Up, Winter'!I4*(1+[2]Main!$B$4)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Up, Winter'!I4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
         <v>119.5403763318711</v>
       </c>
       <c r="J4" s="2">
-        <f>'[2]Tertiary Reserve Up, Winter'!J4*(1+[2]Main!$B$4)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Up, Winter'!J4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
         <v>115.36621684949834</v>
       </c>
       <c r="K4" s="2">
-        <f>'[2]Tertiary Reserve Up, Winter'!K4*(1+[2]Main!$B$4)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Up, Winter'!K4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
         <v>115.36621684949834</v>
       </c>
       <c r="L4" s="2">
-        <f>'[2]Tertiary Reserve Up, Winter'!L4*(1+[2]Main!$B$4)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Up, Winter'!L4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
         <v>115.36621684949834</v>
       </c>
       <c r="M4" s="2">
-        <f>'[2]Tertiary Reserve Up, Winter'!M4*(1+[2]Main!$B$4)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Up, Winter'!M4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
         <v>115.36621684949834</v>
       </c>
       <c r="N4" s="2">
-        <f>'[2]Tertiary Reserve Up, Winter'!N4*(1+[2]Main!$B$4)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Up, Winter'!N4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
         <v>125.7491763659532</v>
       </c>
       <c r="O4" s="2">
-        <f>'[2]Tertiary Reserve Up, Winter'!O4*(1+[2]Main!$B$4)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Up, Winter'!O4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
         <v>125.7491763659532</v>
       </c>
       <c r="P4" s="2">
-        <f>'[2]Tertiary Reserve Up, Winter'!P4*(1+[2]Main!$B$4)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Up, Winter'!P4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
         <v>125.7491763659532</v>
       </c>
       <c r="Q4" s="2">
-        <f>'[2]Tertiary Reserve Up, Winter'!Q4*(1+[2]Main!$B$4)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Up, Winter'!Q4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
         <v>125.7491763659532</v>
       </c>
       <c r="R4" s="2">
-        <f>'[2]Tertiary Reserve Up, Winter'!R4*(1+[2]Main!$B$4)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Up, Winter'!R4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
         <v>125.7491763659532</v>
       </c>
       <c r="S4" s="2">
-        <f>'[2]Tertiary Reserve Up, Winter'!S4*(1+[2]Main!$B$4)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Up, Winter'!S4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
         <v>115.36621684949834</v>
       </c>
       <c r="T4" s="2">
-        <f>'[2]Tertiary Reserve Up, Winter'!T4*(1+[2]Main!$B$4)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Up, Winter'!T4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
         <v>115.36621684949834</v>
       </c>
       <c r="U4" s="2">
-        <f>'[2]Tertiary Reserve Up, Winter'!U4*(1+[2]Main!$B$4)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Up, Winter'!U4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
         <v>115.36621684949834</v>
       </c>
       <c r="V4" s="2">
-        <f>'[2]Tertiary Reserve Up, Winter'!V4*(1+[2]Main!$B$4)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Up, Winter'!V4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
         <v>115.36621684949834</v>
       </c>
       <c r="W4" s="2">
-        <f>'[2]Tertiary Reserve Up, Winter'!W4*(1+[2]Main!$B$4)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Up, Winter'!W4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
         <v>115.36621684949834</v>
       </c>
       <c r="X4" s="2">
-        <f>'[2]Tertiary Reserve Up, Winter'!X4*(1+[2]Main!$B$4)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Up, Winter'!X4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
         <v>115.36621684949834</v>
       </c>
       <c r="Y4" s="2">
-        <f>'[2]Tertiary Reserve Up, Winter'!Y4*(1+[2]Main!$B$4)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Up, Winter'!Y4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
         <v>115.36621684949834</v>
       </c>
     </row>
@@ -3805,99 +3727,99 @@
         <v>1</v>
       </c>
       <c r="B2" s="2">
-        <f>'[2]Tertiary Reserve Down, Winter'!B2*(1+[2]Main!$B$5)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Down, Winter'!B2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
         <v>52.376262449672247</v>
       </c>
       <c r="C2" s="2">
-        <f>'[2]Tertiary Reserve Down, Winter'!C2*(1+[2]Main!$B$5)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Down, Winter'!C2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
         <v>52.376262449672247</v>
       </c>
       <c r="D2" s="2">
-        <f>'[2]Tertiary Reserve Down, Winter'!D2*(1+[2]Main!$B$5)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Down, Winter'!D2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
         <v>0</v>
       </c>
       <c r="E2" s="2">
-        <f>'[2]Tertiary Reserve Down, Winter'!E2*(1+[2]Main!$B$5)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Down, Winter'!E2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
         <v>54.47383002875403</v>
       </c>
       <c r="F2" s="2">
-        <f>'[2]Tertiary Reserve Down, Winter'!F2*(1+[2]Main!$B$5)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Down, Winter'!F2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
         <v>0</v>
       </c>
       <c r="G2" s="2">
-        <f>'[2]Tertiary Reserve Down, Winter'!G2*(1+[2]Main!$B$5)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Down, Winter'!G2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
         <v>52.376262449672247</v>
       </c>
       <c r="H2" s="2">
-        <f>'[2]Tertiary Reserve Down, Winter'!H2*(1+[2]Main!$B$5)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Down, Winter'!H2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
         <v>62.402635477683191</v>
       </c>
       <c r="I2" s="2">
-        <f>'[2]Tertiary Reserve Down, Winter'!I2*(1+[2]Main!$B$5)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Down, Winter'!I2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
         <v>62.402635477683191</v>
       </c>
       <c r="J2" s="2">
-        <f>'[2]Tertiary Reserve Down, Winter'!J2*(1+[2]Main!$B$5)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Down, Winter'!J2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
         <v>52.376262449672247</v>
       </c>
       <c r="K2" s="2">
-        <f>'[2]Tertiary Reserve Down, Winter'!K2*(1+[2]Main!$B$5)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Down, Winter'!K2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
         <v>62.402635477683191</v>
       </c>
       <c r="L2" s="2">
-        <f>'[2]Tertiary Reserve Down, Winter'!L2*(1+[2]Main!$B$5)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Down, Winter'!L2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
         <v>52.376262449672247</v>
       </c>
       <c r="M2" s="2">
-        <f>'[2]Tertiary Reserve Down, Winter'!M2*(1+[2]Main!$B$5)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Down, Winter'!M2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
         <v>52.376262449672247</v>
       </c>
       <c r="N2" s="2">
-        <f>'[2]Tertiary Reserve Down, Winter'!N2*(1+[2]Main!$B$5)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Down, Winter'!N2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
         <v>52.376262449672247</v>
       </c>
       <c r="O2" s="2">
-        <f>'[2]Tertiary Reserve Down, Winter'!O2*(1+[2]Main!$B$5)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Down, Winter'!O2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
         <v>52.460165152835522</v>
       </c>
       <c r="P2" s="2">
-        <f>'[2]Tertiary Reserve Down, Winter'!P2*(1+[2]Main!$B$5)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Down, Winter'!P2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
         <v>52.376262449672247</v>
       </c>
       <c r="Q2" s="2">
-        <f>'[2]Tertiary Reserve Down, Winter'!Q2*(1+[2]Main!$B$5)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Down, Winter'!Q2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
         <v>52.376262449672247</v>
       </c>
       <c r="R2" s="2">
-        <f>'[2]Tertiary Reserve Down, Winter'!R2*(1+[2]Main!$B$5)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Down, Winter'!R2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
         <v>62.402635477683191</v>
       </c>
       <c r="S2" s="2">
-        <f>'[2]Tertiary Reserve Down, Winter'!S2*(1+[2]Main!$B$5)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Down, Winter'!S2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
         <v>62.402635477683191</v>
       </c>
       <c r="T2" s="2">
-        <f>'[2]Tertiary Reserve Down, Winter'!T2*(1+[2]Main!$B$5)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Down, Winter'!T2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
         <v>62.402635477683191</v>
       </c>
       <c r="U2" s="2">
-        <f>'[2]Tertiary Reserve Down, Winter'!U2*(1+[2]Main!$B$5)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Down, Winter'!U2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
         <v>62.402635477683191</v>
       </c>
       <c r="V2" s="2">
-        <f>'[2]Tertiary Reserve Down, Winter'!V2*(1+[2]Main!$B$5)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Down, Winter'!V2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
         <v>62.402635477683191</v>
       </c>
       <c r="W2" s="2">
-        <f>'[2]Tertiary Reserve Down, Winter'!W2*(1+[2]Main!$B$5)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Down, Winter'!W2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
         <v>62.402635477683191</v>
       </c>
       <c r="X2" s="2">
-        <f>'[2]Tertiary Reserve Down, Winter'!X2*(1+[2]Main!$B$5)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Down, Winter'!X2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
         <v>62.402635477683191</v>
       </c>
       <c r="Y2" s="2">
-        <f>'[2]Tertiary Reserve Down, Winter'!Y2*(1+[2]Main!$B$5)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Down, Winter'!Y2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
         <v>62.402635477683191</v>
       </c>
     </row>
@@ -3906,99 +3828,99 @@
         <v>2</v>
       </c>
       <c r="B3" s="2">
-        <f>'[2]Tertiary Reserve Down, Winter'!B3*(1+[2]Main!$B$5)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Down, Winter'!B3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
         <v>8.851735183725145</v>
       </c>
       <c r="C3" s="2">
-        <f>'[2]Tertiary Reserve Down, Winter'!C3*(1+[2]Main!$B$5)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Down, Winter'!C3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
         <v>0</v>
       </c>
       <c r="D3" s="2">
-        <f>'[2]Tertiary Reserve Down, Winter'!D3*(1+[2]Main!$B$5)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Down, Winter'!D3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
         <v>8.851735183725145</v>
       </c>
       <c r="E3" s="2">
-        <f>'[2]Tertiary Reserve Down, Winter'!E3*(1+[2]Main!$B$5)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Down, Winter'!E3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
         <v>8.851735183725145</v>
       </c>
       <c r="F3" s="2">
-        <f>'[2]Tertiary Reserve Down, Winter'!F3*(1+[2]Main!$B$5)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Down, Winter'!F3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
         <v>8.851735183725145</v>
       </c>
       <c r="G3" s="2">
-        <f>'[2]Tertiary Reserve Down, Winter'!G3*(1+[2]Main!$B$5)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Down, Winter'!G3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
         <v>8.851735183725145</v>
       </c>
       <c r="H3" s="2">
-        <f>'[2]Tertiary Reserve Down, Winter'!H3*(1+[2]Main!$B$5)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Down, Winter'!H3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
         <v>8.851735183725145</v>
       </c>
       <c r="I3" s="2">
-        <f>'[2]Tertiary Reserve Down, Winter'!I3*(1+[2]Main!$B$5)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Down, Winter'!I3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
         <v>8.851735183725145</v>
       </c>
       <c r="J3" s="2">
-        <f>'[2]Tertiary Reserve Down, Winter'!J3*(1+[2]Main!$B$5)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Down, Winter'!J3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
         <v>8.851735183725145</v>
       </c>
       <c r="K3" s="2">
-        <f>'[2]Tertiary Reserve Down, Winter'!K3*(1+[2]Main!$B$5)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Down, Winter'!K3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
         <v>0</v>
       </c>
       <c r="L3" s="2">
-        <f>'[2]Tertiary Reserve Down, Winter'!L3*(1+[2]Main!$B$5)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Down, Winter'!L3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
         <v>0</v>
       </c>
       <c r="M3" s="2">
-        <f>'[2]Tertiary Reserve Down, Winter'!M3*(1+[2]Main!$B$5)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Down, Winter'!M3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
         <v>0</v>
       </c>
       <c r="N3" s="2">
-        <f>'[2]Tertiary Reserve Down, Winter'!N3*(1+[2]Main!$B$5)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Down, Winter'!N3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
         <v>0</v>
       </c>
       <c r="O3" s="2">
-        <f>'[2]Tertiary Reserve Down, Winter'!O3*(1+[2]Main!$B$5)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Down, Winter'!O3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
         <v>0</v>
       </c>
       <c r="P3" s="2">
-        <f>'[2]Tertiary Reserve Down, Winter'!P3*(1+[2]Main!$B$5)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Down, Winter'!P3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
         <v>0</v>
       </c>
       <c r="Q3" s="2">
-        <f>'[2]Tertiary Reserve Down, Winter'!Q3*(1+[2]Main!$B$5)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Down, Winter'!Q3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
         <v>0</v>
       </c>
       <c r="R3" s="2">
-        <f>'[2]Tertiary Reserve Down, Winter'!R3*(1+[2]Main!$B$5)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Down, Winter'!R3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
         <v>0</v>
       </c>
       <c r="S3" s="2">
-        <f>'[2]Tertiary Reserve Down, Winter'!S3*(1+[2]Main!$B$5)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Down, Winter'!S3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
         <v>12.16589195867437</v>
       </c>
       <c r="T3" s="2">
-        <f>'[2]Tertiary Reserve Down, Winter'!T3*(1+[2]Main!$B$5)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Down, Winter'!T3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
         <v>12.37564871658255</v>
       </c>
       <c r="U3" s="2">
-        <f>'[2]Tertiary Reserve Down, Winter'!U3*(1+[2]Main!$B$5)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Down, Winter'!U3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
         <v>12.37564871658255</v>
       </c>
       <c r="V3" s="2">
-        <f>'[2]Tertiary Reserve Down, Winter'!V3*(1+[2]Main!$B$5)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Down, Winter'!V3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
         <v>12.795162232398907</v>
       </c>
       <c r="W3" s="2">
-        <f>'[2]Tertiary Reserve Down, Winter'!W3*(1+[2]Main!$B$5)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Down, Winter'!W3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
         <v>12.37564871658255</v>
       </c>
       <c r="X3" s="2">
-        <f>'[2]Tertiary Reserve Down, Winter'!X3*(1+[2]Main!$B$5)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Down, Winter'!X3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
         <v>11.746378442858012</v>
       </c>
       <c r="Y3" s="2">
-        <f>'[2]Tertiary Reserve Down, Winter'!Y3*(1+[2]Main!$B$5)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Down, Winter'!Y3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
         <v>76.770973394393451</v>
       </c>
     </row>
@@ -4007,99 +3929,99 @@
         <v>3</v>
       </c>
       <c r="B4" s="2">
-        <f>'[2]Tertiary Reserve Down, Winter'!B4*(1+[2]Main!$B$5)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Down, Winter'!B4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
         <v>0</v>
       </c>
       <c r="C4" s="2">
-        <f>'[2]Tertiary Reserve Down, Winter'!C4*(1+[2]Main!$B$5)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Down, Winter'!C4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
         <v>66.597770635846771</v>
       </c>
       <c r="D4" s="2">
-        <f>'[2]Tertiary Reserve Down, Winter'!D4*(1+[2]Main!$B$5)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Down, Winter'!D4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
         <v>61.878243582912745</v>
       </c>
       <c r="E4" s="2">
-        <f>'[2]Tertiary Reserve Down, Winter'!E4*(1+[2]Main!$B$5)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Down, Winter'!E4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
         <v>66.597770635846771</v>
       </c>
       <c r="F4" s="2">
-        <f>'[2]Tertiary Reserve Down, Winter'!F4*(1+[2]Main!$B$5)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Down, Winter'!F4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
         <v>66.597770635846771</v>
       </c>
       <c r="G4" s="2">
-        <f>'[2]Tertiary Reserve Down, Winter'!G4*(1+[2]Main!$B$5)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Down, Winter'!G4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
         <v>66.597770635846771</v>
       </c>
       <c r="H4" s="2">
-        <f>'[2]Tertiary Reserve Down, Winter'!H4*(1+[2]Main!$B$5)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Down, Winter'!H4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
         <v>94.180784300772274</v>
       </c>
       <c r="I4" s="2">
-        <f>'[2]Tertiary Reserve Down, Winter'!I4*(1+[2]Main!$B$5)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Down, Winter'!I4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
         <v>66.597770635846771</v>
       </c>
       <c r="J4" s="2">
-        <f>'[2]Tertiary Reserve Down, Winter'!J4*(1+[2]Main!$B$5)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Down, Winter'!J4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
         <v>83.881727487480703</v>
       </c>
       <c r="K4" s="2">
-        <f>'[2]Tertiary Reserve Down, Winter'!K4*(1+[2]Main!$B$5)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Down, Winter'!K4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
         <v>83.923678839062333</v>
       </c>
       <c r="L4" s="2">
-        <f>'[2]Tertiary Reserve Down, Winter'!L4*(1+[2]Main!$B$5)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Down, Winter'!L4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
         <v>83.923678839062333</v>
       </c>
       <c r="M4" s="2">
-        <f>'[2]Tertiary Reserve Down, Winter'!M4*(1+[2]Main!$B$5)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Down, Winter'!M4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
         <v>83.923678839062333</v>
       </c>
       <c r="N4" s="2">
-        <f>'[2]Tertiary Reserve Down, Winter'!N4*(1+[2]Main!$B$5)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Down, Winter'!N4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
         <v>83.881727487480703</v>
       </c>
       <c r="O4" s="2">
-        <f>'[2]Tertiary Reserve Down, Winter'!O4*(1+[2]Main!$B$5)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Down, Winter'!O4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
         <v>83.881727487480703</v>
       </c>
       <c r="P4" s="2">
-        <f>'[2]Tertiary Reserve Down, Winter'!P4*(1+[2]Main!$B$5)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Down, Winter'!P4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
         <v>83.881727487480703</v>
       </c>
       <c r="Q4" s="2">
-        <f>'[2]Tertiary Reserve Down, Winter'!Q4*(1+[2]Main!$B$5)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Down, Winter'!Q4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
         <v>83.881727487480703</v>
       </c>
       <c r="R4" s="2">
-        <f>'[2]Tertiary Reserve Down, Winter'!R4*(1+[2]Main!$B$5)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Down, Winter'!R4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
         <v>83.94465451485317</v>
       </c>
       <c r="S4" s="2">
-        <f>'[2]Tertiary Reserve Down, Winter'!S4*(1+[2]Main!$B$5)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Down, Winter'!S4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
         <v>92.292973479598672</v>
       </c>
       <c r="T4" s="2">
-        <f>'[2]Tertiary Reserve Down, Winter'!T4*(1+[2]Main!$B$5)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Down, Winter'!T4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
         <v>92.292973479598672</v>
       </c>
       <c r="U4" s="2">
-        <f>'[2]Tertiary Reserve Down, Winter'!U4*(1+[2]Main!$B$5)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Down, Winter'!U4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
         <v>92.292973479598672</v>
       </c>
       <c r="V4" s="2">
-        <f>'[2]Tertiary Reserve Down, Winter'!V4*(1+[2]Main!$B$5)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Down, Winter'!V4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
         <v>92.292973479598672</v>
       </c>
       <c r="W4" s="2">
-        <f>'[2]Tertiary Reserve Down, Winter'!W4*(1+[2]Main!$B$5)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Down, Winter'!W4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
         <v>85.9792950665625</v>
       </c>
       <c r="X4" s="2">
-        <f>'[2]Tertiary Reserve Down, Winter'!X4*(1+[2]Main!$B$5)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Down, Winter'!X4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
         <v>66.597770635846771</v>
       </c>
       <c r="Y4" s="2">
-        <f>'[2]Tertiary Reserve Down, Winter'!Y4*(1+[2]Main!$B$5)^(Scenarios!$B$3-2020)</f>
+        <f>'[1]Tertiary Reserve Down, Winter'!Y4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
         <v>66.597770635846771</v>
       </c>
     </row>
@@ -4164,8 +4086,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB224AF7-AF06-40B8-9986-34C502BD82F3}">
   <dimension ref="A1:Y6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:Y4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4612,7 +4534,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB82C02F-BCC0-4FE2-9CCD-B8D1440925A2}">
   <dimension ref="A1:Y7"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:Y4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -5083,7 +5007,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78952B52-95E9-4A46-956D-99C2442CB011}">
   <dimension ref="A1:Y6"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:Y4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -5528,7 +5454,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFC6F8DD-C4F6-4B8F-AEB1-9B49F4112981}">
   <dimension ref="A1:Y6"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:Y4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>

--- a/data/CS5/Market Data/CS5_market_data_2050.xlsx
+++ b/data/CS5/Market Data/CS5_market_data_2050.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\shared-resources-planning-v3\data\CS5\Market Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12591271-580B-4EBA-B067-A388465BDAF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBC5E912-61AE-46E4-9CB6-0710E8A9085C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="45" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Scenarios" sheetId="1" r:id="rId1"/>
@@ -2222,7 +2222,7 @@
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
